--- a/data/trans_orig/MCS12_SP_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>157171</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137635</v>
+        <v>137773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>179884</v>
+        <v>179899</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3181190825511182</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2785766165978902</v>
+        <v>0.2788570044399739</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3640904656873745</v>
+        <v>0.3641213632572655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -765,19 +765,19 @@
         <v>94234</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>79852</v>
+        <v>78147</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>111751</v>
+        <v>111744</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2015740666390844</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1708098301836216</v>
+        <v>0.1671636948171044</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2390457581459076</v>
+        <v>0.2390302905772883</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>257</v>
@@ -786,19 +786,19 @@
         <v>251405</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>225727</v>
+        <v>223794</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>278600</v>
+        <v>279013</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2614570722663552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2347524584289325</v>
+        <v>0.2327427160719601</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2897394460765018</v>
+        <v>0.2901694974268155</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>177343</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>154878</v>
+        <v>156326</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>198997</v>
+        <v>196527</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3589473246408607</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3134784856350689</v>
+        <v>0.3164092600460154</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4027765675517225</v>
+        <v>0.3977772367177581</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>185</v>
@@ -836,19 +836,19 @@
         <v>172653</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>154632</v>
+        <v>150670</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>192816</v>
+        <v>192837</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3693199858834668</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3307713891207064</v>
+        <v>0.3222962736037678</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4124496234199254</v>
+        <v>0.4124945414903134</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>368</v>
@@ -857,19 +857,19 @@
         <v>349996</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>318868</v>
+        <v>323941</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>377671</v>
+        <v>380747</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3639903188299259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3316177165196015</v>
+        <v>0.3368933271486168</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3927721911828</v>
+        <v>0.3959705657920002</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>101195</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83838</v>
+        <v>83949</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>119260</v>
+        <v>119716</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2048221711533131</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1696899356039054</v>
+        <v>0.1699147428119888</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2413860269353576</v>
+        <v>0.2423089585129081</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>117</v>
@@ -907,19 +907,19 @@
         <v>114179</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>96082</v>
+        <v>96529</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>132335</v>
+        <v>133916</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2442396208700227</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2055270092811597</v>
+        <v>0.2064831903546841</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2830754636865513</v>
+        <v>0.2864585117067782</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>217</v>
@@ -928,19 +928,19 @@
         <v>215375</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>191057</v>
+        <v>191153</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>243829</v>
+        <v>242345</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.223986199093668</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1986967104676601</v>
+        <v>0.1987961150684611</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2535779709987043</v>
+        <v>0.2520352727750723</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>58355</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45366</v>
+        <v>45426</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75250</v>
+        <v>75688</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1181114216547081</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09182267256951514</v>
+        <v>0.09194262222508703</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1523084363660303</v>
+        <v>0.1531951020507529</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -978,19 +978,19 @@
         <v>86423</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71294</v>
+        <v>70625</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102713</v>
+        <v>104502</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1848663266074262</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1525035254706449</v>
+        <v>0.1510732815317045</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2197118934345499</v>
+        <v>0.2235380264196533</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>146</v>
@@ -999,19 +999,19 @@
         <v>144778</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125253</v>
+        <v>124140</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>166903</v>
+        <v>168157</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1505664098100508</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1302612319784666</v>
+        <v>0.1291037756363437</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1735759856382122</v>
+        <v>0.1748809185250761</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>182463</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>158902</v>
+        <v>161848</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>208141</v>
+        <v>209143</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2480836276950991</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2160489472308636</v>
+        <v>0.220055093945195</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2829972755386654</v>
+        <v>0.2843584936490133</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>82</v>
@@ -1124,19 +1124,19 @@
         <v>86858</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>71254</v>
+        <v>71647</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>104726</v>
+        <v>106558</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1388628122506747</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1139156861685645</v>
+        <v>0.1145447688457493</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1674286265193999</v>
+        <v>0.1703582304497676</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>256</v>
@@ -1145,19 +1145,19 @@
         <v>269320</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>238166</v>
+        <v>239515</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>302711</v>
+        <v>298633</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1978868407927144</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1749959754333933</v>
+        <v>0.1759866725850736</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2224213607752069</v>
+        <v>0.2194248408166617</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>299667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>272225</v>
+        <v>272432</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>325537</v>
+        <v>326738</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4074391515007408</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3701273239889672</v>
+        <v>0.3704092301132544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4426123548963437</v>
+        <v>0.4442465908405088</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>220</v>
@@ -1195,19 +1195,19 @@
         <v>234584</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>209350</v>
+        <v>210269</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>259557</v>
+        <v>257703</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3750374135884013</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3346953362112888</v>
+        <v>0.3361647258394648</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4149635178807378</v>
+        <v>0.4119986443531253</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>504</v>
@@ -1216,19 +1216,19 @@
         <v>534250</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>498408</v>
+        <v>501011</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>570717</v>
+        <v>572782</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3925476390483345</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3662118862878113</v>
+        <v>0.368124566076324</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4193417613350398</v>
+        <v>0.4208594980169471</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>156204</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>134037</v>
+        <v>134159</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>179931</v>
+        <v>179481</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2123813201184715</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1822419902992384</v>
+        <v>0.1824082346137127</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2446408876354026</v>
+        <v>0.2440298502889903</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>162</v>
@@ -1266,19 +1266,19 @@
         <v>168504</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>147425</v>
+        <v>148061</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>189978</v>
+        <v>192399</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2693939979525061</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2356935136810261</v>
+        <v>0.2367103480531328</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3037249166115176</v>
+        <v>0.3075957438989847</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>314</v>
@@ -1287,19 +1287,19 @@
         <v>324708</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>297229</v>
+        <v>292327</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>359816</v>
+        <v>357168</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2385837727217077</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2183930474373653</v>
+        <v>0.2147913643827006</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2643793812453946</v>
+        <v>0.2624340166809711</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>97155</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80380</v>
+        <v>79814</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>118105</v>
+        <v>118075</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1320959006856886</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1092877673646342</v>
+        <v>0.1085186053177553</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1605809047311606</v>
+        <v>0.1605398343871392</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>127</v>
@@ -1337,19 +1337,19 @@
         <v>135548</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114222</v>
+        <v>115244</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>156886</v>
+        <v>158716</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2167057762084179</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1826108647970158</v>
+        <v>0.1842440552145667</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2508187509809948</v>
+        <v>0.2537455170760473</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>220</v>
@@ -1358,19 +1358,19 @@
         <v>232703</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>207907</v>
+        <v>204709</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>261689</v>
+        <v>261840</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1709817474372434</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1527623637385465</v>
+        <v>0.1504124083050897</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1922793943324539</v>
+        <v>0.1923903314359718</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>125696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>107163</v>
+        <v>106321</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>148536</v>
+        <v>149841</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1968101829087137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1677909745469489</v>
+        <v>0.1664733460030214</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2325713266474441</v>
+        <v>0.2346140784343642</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>84</v>
@@ -1483,19 +1483,19 @@
         <v>88389</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>72460</v>
+        <v>71370</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>108414</v>
+        <v>108051</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1281479647437181</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.105053342349214</v>
+        <v>0.1034730177600386</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1571806645078141</v>
+        <v>0.1566539639845755</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>206</v>
@@ -1504,19 +1504,19 @@
         <v>214086</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>185279</v>
+        <v>188752</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>240686</v>
+        <v>242807</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1611590624255713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1394737255669112</v>
+        <v>0.1420887960225173</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1811830040256762</v>
+        <v>0.1827801990325648</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>234124</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>210409</v>
+        <v>210441</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>263337</v>
+        <v>259171</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3665822911121762</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3294504036589638</v>
+        <v>0.3295001194219245</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4123226230374538</v>
+        <v>0.4057991195031861</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>190</v>
@@ -1554,19 +1554,19 @@
         <v>200169</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>176078</v>
+        <v>175045</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>223239</v>
+        <v>226119</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2902073952873866</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2552805195828002</v>
+        <v>0.2537824842140671</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.323655553082446</v>
+        <v>0.3278304056796476</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>416</v>
@@ -1575,19 +1575,19 @@
         <v>434293</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>399424</v>
+        <v>400385</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>468431</v>
+        <v>469925</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3269265577888803</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3006774743058386</v>
+        <v>0.301401177956447</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3526250245891051</v>
+        <v>0.3537497896032802</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>143801</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>123435</v>
+        <v>123288</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>166272</v>
+        <v>166083</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2251577064103414</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1932691909388566</v>
+        <v>0.1930391471380082</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2603419974472944</v>
+        <v>0.2600464928459593</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>221</v>
@@ -1625,19 +1625,19 @@
         <v>229312</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>205712</v>
+        <v>201863</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>255742</v>
+        <v>255393</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3324599711812092</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.298244650853866</v>
+        <v>0.2926631260188279</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3707786237142744</v>
+        <v>0.3702722374436044</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>358</v>
@@ -1646,19 +1646,19 @@
         <v>373113</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>342776</v>
+        <v>342887</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>409775</v>
+        <v>407478</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2808716939816095</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2580344421620736</v>
+        <v>0.2581178412363054</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3084700997020343</v>
+        <v>0.3067409290835708</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>135046</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>113312</v>
+        <v>113816</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>156385</v>
+        <v>156137</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2114498195687686</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1774195179011566</v>
+        <v>0.1782088490375811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2448608324252841</v>
+        <v>0.2444729936012623</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -1696,19 +1696,19 @@
         <v>171874</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>150917</v>
+        <v>150064</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>197573</v>
+        <v>195477</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.249184668787686</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2188010564336417</v>
+        <v>0.2175654045219638</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2864442853009776</v>
+        <v>0.2834057217047078</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>291</v>
@@ -1717,19 +1717,19 @@
         <v>306920</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>276687</v>
+        <v>274339</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>339139</v>
+        <v>337403</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2310426858039389</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2082841991379102</v>
+        <v>0.2065163609234208</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2552966582411694</v>
+        <v>0.2539897743192744</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>112551</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94224</v>
+        <v>94063</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>132668</v>
+        <v>131214</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2167994398506464</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1814971895109235</v>
+        <v>0.1811867701910926</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2555506787135253</v>
+        <v>0.2527489478687718</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -1842,19 +1842,19 @@
         <v>68691</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55328</v>
+        <v>55858</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86045</v>
+        <v>86340</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.133215183556142</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1072986069669064</v>
+        <v>0.1083274255753462</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1668703657536516</v>
+        <v>0.1674410721827033</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>173</v>
@@ -1863,19 +1863,19 @@
         <v>181242</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>157793</v>
+        <v>159265</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>208479</v>
+        <v>207713</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.175148870620208</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1524882030164917</v>
+        <v>0.1539107190291064</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2014704212556013</v>
+        <v>0.2007302215396219</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>171687</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>149317</v>
+        <v>150279</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193064</v>
+        <v>194375</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3307091087666094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2876197941422063</v>
+        <v>0.2894722310158331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3718864188071107</v>
+        <v>0.3744128472286695</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>121</v>
@@ -1913,19 +1913,19 @@
         <v>124825</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>106070</v>
+        <v>107221</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>144371</v>
+        <v>146519</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2420777841331493</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2057044660696157</v>
+        <v>0.2079370529621398</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2799834643406801</v>
+        <v>0.2841483344889419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>287</v>
@@ -1934,19 +1934,19 @@
         <v>296512</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>267186</v>
+        <v>266379</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>324055</v>
+        <v>328056</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2865435531190909</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.258203367639735</v>
+        <v>0.2574231383228969</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.313160042345201</v>
+        <v>0.3170268035641915</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>147037</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>127419</v>
+        <v>126064</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>169468</v>
+        <v>169389</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2832280907182756</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2454399533119566</v>
+        <v>0.2428298531446336</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3264350976345635</v>
+        <v>0.3262826750175191</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>158</v>
@@ -1984,19 +1984,19 @@
         <v>163177</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>144032</v>
+        <v>140843</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>186214</v>
+        <v>183721</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3164531383189058</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2793250913151541</v>
+        <v>0.2731401735810075</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3611299903545595</v>
+        <v>0.356296193758769</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>291</v>
@@ -2005,19 +2005,19 @@
         <v>310214</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>281073</v>
+        <v>284222</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>341068</v>
+        <v>344176</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2997843443313816</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2716234177501391</v>
+        <v>0.2746665693102989</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.329601335876848</v>
+        <v>0.3326051739439784</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>87873</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71620</v>
+        <v>71096</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>107345</v>
+        <v>106479</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1692633606644686</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1379563413675229</v>
+        <v>0.1369482870201771</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2067723557221838</v>
+        <v>0.2051032220079377</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>155</v>
@@ -2055,19 +2055,19 @@
         <v>158949</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>138274</v>
+        <v>138500</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>180390</v>
+        <v>178921</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3082538939918028</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2681582660881435</v>
+        <v>0.2685971560947613</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.349835733620277</v>
+        <v>0.3469876672128587</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>235</v>
@@ -2076,19 +2076,19 @@
         <v>246821</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>221892</v>
+        <v>219455</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>274676</v>
+        <v>275799</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2385232319293196</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.214431684750281</v>
+        <v>0.2120767351535554</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2654415392445721</v>
+        <v>0.2665267496365398</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>86410</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>70828</v>
+        <v>71806</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>102203</v>
+        <v>104503</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2234502636202445</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1831556599371136</v>
+        <v>0.1856836603515798</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2642879616304059</v>
+        <v>0.2702370677018383</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -2201,19 +2201,19 @@
         <v>59286</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47123</v>
+        <v>45929</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74857</v>
+        <v>75240</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1467513885677549</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1166449794378132</v>
+        <v>0.113688767527201</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1852963909297806</v>
+        <v>0.1862452815405737</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>147</v>
@@ -2222,19 +2222,19 @@
         <v>145696</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>125954</v>
+        <v>124683</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>165590</v>
+        <v>168449</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1842629279438319</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1592948919165935</v>
+        <v>0.1576871562316292</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2094229279634931</v>
+        <v>0.2130385656729511</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>84004</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68703</v>
+        <v>69864</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100783</v>
+        <v>100543</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2172281223432218</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1776602074383492</v>
+        <v>0.180662048011176</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2606173850419075</v>
+        <v>0.2599962844985635</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>104</v>
@@ -2272,19 +2272,19 @@
         <v>106497</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>91025</v>
+        <v>89670</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>124763</v>
+        <v>123692</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2636165309725486</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2253163720527306</v>
+        <v>0.2219640631324602</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3088300480108188</v>
+        <v>0.3061797256910032</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>188</v>
@@ -2293,19 +2293,19 @@
         <v>190502</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>168333</v>
+        <v>165786</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>213967</v>
+        <v>213634</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2409290976079564</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2128924277955224</v>
+        <v>0.2096712968084952</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2706063303360072</v>
+        <v>0.2701850062343983</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>119538</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>102163</v>
+        <v>102269</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>136887</v>
+        <v>138477</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3091143219467196</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2641847300120618</v>
+        <v>0.2644583139192885</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3539787021720017</v>
+        <v>0.3580888989674065</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>103</v>
@@ -2343,19 +2343,19 @@
         <v>105586</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>88153</v>
+        <v>89921</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>123378</v>
+        <v>124404</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2613617615139565</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2182074901523565</v>
+        <v>0.2225851271658055</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3054019946578318</v>
+        <v>0.3079416820900114</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>225</v>
@@ -2364,19 +2364,19 @@
         <v>225124</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>200837</v>
+        <v>200663</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>247909</v>
+        <v>250649</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2847163680809526</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2539999117040464</v>
+        <v>0.2537799779707748</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3135325514479984</v>
+        <v>0.3169981907800099</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>96758</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>79765</v>
+        <v>79696</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>115240</v>
+        <v>114645</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.250207292089814</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2062653692002429</v>
+        <v>0.206086711850974</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2980019910677004</v>
+        <v>0.2964634827297917</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>130</v>
@@ -2414,19 +2414,19 @@
         <v>132617</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>114034</v>
+        <v>115323</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>149520</v>
+        <v>152281</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.32827031894574</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2822715521379739</v>
+        <v>0.2854638835308109</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3701125744392487</v>
+        <v>0.3769468776847468</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>228</v>
@@ -2435,19 +2435,19 @@
         <v>229374</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>206054</v>
+        <v>206084</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>254089</v>
+        <v>257648</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2900916063672591</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2605984544556594</v>
+        <v>0.2606363115618534</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3213485387676681</v>
+        <v>0.3258491393005933</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>59177</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>47973</v>
+        <v>46280</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>74539</v>
+        <v>73346</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2022576806469115</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1639629093620065</v>
+        <v>0.1581771094125563</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2547631153589371</v>
+        <v>0.2506843955808823</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>60</v>
@@ -2560,19 +2560,19 @@
         <v>54551</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>43132</v>
+        <v>42184</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>67739</v>
+        <v>67946</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1590713394607601</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.125772172202105</v>
+        <v>0.1230080054586564</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1975282581710065</v>
+        <v>0.1981309171530402</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>122</v>
@@ -2581,19 +2581,19 @@
         <v>113728</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>96414</v>
+        <v>96199</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>133652</v>
+        <v>133264</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1789537175685491</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1517100644748072</v>
+        <v>0.151371918447559</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2103045505342968</v>
+        <v>0.2096934554193912</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>74977</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>62121</v>
+        <v>61483</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>89858</v>
+        <v>88966</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2562594358108529</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2123176741290349</v>
+        <v>0.210138539738267</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3071188373208518</v>
+        <v>0.304071300935874</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>101</v>
@@ -2631,19 +2631,19 @@
         <v>92468</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>77353</v>
+        <v>76657</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>107984</v>
+        <v>108144</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2696380108720645</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2255616702070787</v>
+        <v>0.2235333958928116</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3148836837500056</v>
+        <v>0.3153506325990432</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>178</v>
@@ -2652,19 +2652,19 @@
         <v>167445</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>147761</v>
+        <v>148241</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>190847</v>
+        <v>192538</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.263478704929385</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2325053165561712</v>
+        <v>0.2332597232701433</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3003012379887712</v>
+        <v>0.3029623089188486</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>79455</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>65881</v>
+        <v>65952</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>94585</v>
+        <v>95137</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2715638106260271</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2251711390580447</v>
+        <v>0.2254113858497521</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3232774223724918</v>
+        <v>0.3251621188271874</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>98</v>
@@ -2702,19 +2702,19 @@
         <v>90606</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>75355</v>
+        <v>74020</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>106839</v>
+        <v>106049</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2642074159124507</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2197353837290236</v>
+        <v>0.2158440566614937</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3115445451129651</v>
+        <v>0.3092405169264896</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>181</v>
@@ -2723,19 +2723,19 @@
         <v>170061</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>151091</v>
+        <v>149039</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>193734</v>
+        <v>190975</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2675941955559267</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2377442894368735</v>
+        <v>0.2345161688102135</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3048450374527401</v>
+        <v>0.3005035094442921</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>78974</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>64020</v>
+        <v>64185</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>92969</v>
+        <v>93431</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2699190729162086</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2188102428981012</v>
+        <v>0.2193731802340625</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3177529899702866</v>
+        <v>0.319330116572189</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>112</v>
@@ -2773,19 +2773,19 @@
         <v>105309</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>90102</v>
+        <v>91089</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>120898</v>
+        <v>123558</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3070832337547248</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2627396645125107</v>
+        <v>0.2656163579822046</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3525415119994427</v>
+        <v>0.3602967895092895</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>193</v>
@@ -2794,19 +2794,19 @@
         <v>184283</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>162120</v>
+        <v>163882</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>206182</v>
+        <v>206067</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2899733819461393</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2550992547629505</v>
+        <v>0.2578718334852517</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3244324816214235</v>
+        <v>0.3242503570517108</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>51963</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>39701</v>
+        <v>38955</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>65473</v>
+        <v>63963</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2475793945913483</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1891576362717508</v>
+        <v>0.185601166423471</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3119503363884471</v>
+        <v>0.3047552495456396</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>78</v>
@@ -2919,19 +2919,19 @@
         <v>89349</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>72278</v>
+        <v>72098</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>107811</v>
+        <v>107216</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2675869254749815</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2164616408914432</v>
+        <v>0.2159231672611686</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3228768800319454</v>
+        <v>0.3210943719994923</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>132</v>
@@ -2940,19 +2940,19 @@
         <v>141312</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>121644</v>
+        <v>121876</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>164007</v>
+        <v>166309</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2598647661396089</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2236968217650431</v>
+        <v>0.2241228370259478</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3015993254331358</v>
+        <v>0.3058331541599852</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>43197</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>33233</v>
+        <v>32658</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>55403</v>
+        <v>55486</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2058157390909391</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1583417110462183</v>
+        <v>0.1556028588566317</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2639721014403323</v>
+        <v>0.2643676323839428</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>66</v>
@@ -2990,19 +2990,19 @@
         <v>75745</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>60366</v>
+        <v>60644</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>92691</v>
+        <v>93411</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2268433132542126</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1807849034126191</v>
+        <v>0.1816176691048502</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.277594052079537</v>
+        <v>0.2797492224462241</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>113</v>
@@ -3011,19 +3011,19 @@
         <v>118942</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>100323</v>
+        <v>101621</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>140284</v>
+        <v>139471</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2187274553270362</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1844890024486291</v>
+        <v>0.186874622774737</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2579733195404673</v>
+        <v>0.2564787011753704</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>58344</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>46036</v>
+        <v>45632</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>71319</v>
+        <v>71804</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2779812765956267</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2193410735082493</v>
+        <v>0.2174169045096886</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3398058979611906</v>
+        <v>0.3421158063919646</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>55</v>
@@ -3061,19 +3061,19 @@
         <v>62396</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>48050</v>
+        <v>48453</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>78728</v>
+        <v>78609</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1868656689217706</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1439030622005485</v>
+        <v>0.1451087132727922</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2357773693785516</v>
+        <v>0.2354204001422534</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>115</v>
@@ -3082,19 +3082,19 @@
         <v>120739</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>99682</v>
+        <v>101146</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>141193</v>
+        <v>140048</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2220328889295322</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1833088116833739</v>
+        <v>0.1860018317710423</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2596459280139551</v>
+        <v>0.2575402552134236</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>56380</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>44932</v>
+        <v>44907</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>67682</v>
+        <v>69622</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2686235897220859</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2140834394079933</v>
+        <v>0.213964012302924</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3224745932076485</v>
+        <v>0.3317189075505924</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>91</v>
@@ -3132,19 +3132,19 @@
         <v>106418</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>89702</v>
+        <v>89216</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>125088</v>
+        <v>124835</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3187040923490353</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2686439003819429</v>
+        <v>0.2671866771210377</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3746188090114523</v>
+        <v>0.3738602107505252</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>150</v>
@@ -3153,19 +3153,19 @@
         <v>162797</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>141439</v>
+        <v>141783</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>185506</v>
+        <v>183957</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2993748896038227</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2600971794291562</v>
+        <v>0.2607310510007538</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3411343272833451</v>
+        <v>0.3382857328635243</v>
       </c>
     </row>
     <row r="38">
@@ -3257,19 +3257,19 @@
         <v>775431</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>726550</v>
+        <v>727588</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>828115</v>
+        <v>825910</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.236661384436829</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2217428882373933</v>
+        <v>0.2220597595506123</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2527404829599398</v>
+        <v>0.2520675910329023</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>528</v>
@@ -3278,19 +3278,19 @@
         <v>541358</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>498350</v>
+        <v>500850</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>585575</v>
+        <v>581910</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1602031638745793</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.147476011578912</v>
+        <v>0.1482155516346746</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1732881800913794</v>
+        <v>0.1722036099004695</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1293</v>
@@ -3299,19 +3299,19 @@
         <v>1316789</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1256767</v>
+        <v>1252431</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1384957</v>
+        <v>1379175</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1978426522314297</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1888244628810605</v>
+        <v>0.1881730314611358</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2080845036800276</v>
+        <v>0.2072158660530506</v>
       </c>
     </row>
     <row r="40">
@@ -3328,19 +3328,19 @@
         <v>1084999</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1032007</v>
+        <v>1029178</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1141911</v>
+        <v>1136399</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3311414700565793</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3149681426636225</v>
+        <v>0.3141047136494167</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3485109911039784</v>
+        <v>0.34682855234985</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>987</v>
@@ -3349,19 +3349,19 @@
         <v>1006941</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>955646</v>
+        <v>952125</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1066597</v>
+        <v>1063269</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2979823868317861</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.282802604218703</v>
+        <v>0.2817607756046638</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3156363400280712</v>
+        <v>0.3146514305530292</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2054</v>
@@ -3370,19 +3370,19 @@
         <v>2091941</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2010819</v>
+        <v>2009362</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2159642</v>
+        <v>2162412</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3143062159476794</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3021180451233294</v>
+        <v>0.3018991083118027</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.324478047548262</v>
+        <v>0.3248941799373185</v>
       </c>
     </row>
     <row r="41">
@@ -3399,19 +3399,19 @@
         <v>805573</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>754480</v>
+        <v>754252</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>857369</v>
+        <v>860086</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2458607451275041</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2302669922306674</v>
+        <v>0.2301973711990143</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2616688691622402</v>
+        <v>0.2624980844308191</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>914</v>
@@ -3420,19 +3420,19 @@
         <v>933761</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>883785</v>
+        <v>880628</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>986138</v>
+        <v>984111</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2763261830410501</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2615369334512464</v>
+        <v>0.2606028674120588</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2918261153827796</v>
+        <v>0.2912262162765219</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1701</v>
@@ -3441,19 +3441,19 @@
         <v>1739334</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1667207</v>
+        <v>1660252</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1803994</v>
+        <v>1807915</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2613284040291823</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2504915649871888</v>
+        <v>0.249446654530155</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2710432837518846</v>
+        <v>0.2716324817629403</v>
       </c>
     </row>
     <row r="42">
@@ -3470,19 +3470,19 @@
         <v>610539</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>567755</v>
+        <v>565139</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>656883</v>
+        <v>658637</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1863364003790876</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1732786090292094</v>
+        <v>0.1724801653234511</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.200480537593351</v>
+        <v>0.2010159286557666</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>868</v>
@@ -3491,19 +3491,19 @@
         <v>897137</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>848940</v>
+        <v>844505</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>952736</v>
+        <v>945437</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2654882662525845</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2512254481176807</v>
+        <v>0.2499129579972557</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2819415622131851</v>
+        <v>0.2797816737309765</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1463</v>
@@ -3512,19 +3512,19 @@
         <v>1507677</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1447334</v>
+        <v>1439658</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1579485</v>
+        <v>1577958</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2265227277917087</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2174564544668633</v>
+        <v>0.2163032369262539</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2373116122914047</v>
+        <v>0.2370823018040929</v>
       </c>
     </row>
     <row r="43">
@@ -3859,19 +3859,19 @@
         <v>180244</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>157774</v>
+        <v>159873</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>202026</v>
+        <v>199510</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3968860440548685</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3474089912608964</v>
+        <v>0.3520304890943324</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4448485947629568</v>
+        <v>0.4393070663034673</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>131</v>
@@ -3880,19 +3880,19 @@
         <v>132000</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>115288</v>
+        <v>111911</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150954</v>
+        <v>150955</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3068120874981513</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2679694426734723</v>
+        <v>0.2601193088107738</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3508674032772913</v>
+        <v>0.3508712282956062</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>308</v>
@@ -3901,19 +3901,19 @@
         <v>312244</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>282531</v>
+        <v>285761</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>339333</v>
+        <v>342408</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.353067009396517</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3194688791494612</v>
+        <v>0.3231219172117089</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3836972053709504</v>
+        <v>0.3871751768215219</v>
       </c>
     </row>
     <row r="5">
@@ -3930,19 +3930,19 @@
         <v>113649</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>96679</v>
+        <v>96001</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>132790</v>
+        <v>134933</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2502470906754786</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2128806673481255</v>
+        <v>0.2113884257518073</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2923951432569731</v>
+        <v>0.2971136309001554</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>87</v>
@@ -3951,19 +3951,19 @@
         <v>87282</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72503</v>
+        <v>72936</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>104172</v>
+        <v>104939</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2028726684589046</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1685214085639874</v>
+        <v>0.1695275833188475</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2421320077393335</v>
+        <v>0.2439144019501223</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>196</v>
@@ -3972,19 +3972,19 @@
         <v>200931</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>174672</v>
+        <v>177148</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>226414</v>
+        <v>228881</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2272004573490043</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1975082591560914</v>
+        <v>0.2003085136852837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2560153158175464</v>
+        <v>0.2588049839415789</v>
       </c>
     </row>
     <row r="6">
@@ -4001,19 +4001,19 @@
         <v>88248</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>72068</v>
+        <v>72943</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>105784</v>
+        <v>107468</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1943164849364781</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1586880712177765</v>
+        <v>0.1606157706429673</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2329295072624208</v>
+        <v>0.2366373075773441</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>129</v>
@@ -4022,19 +4022,19 @@
         <v>133170</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>114322</v>
+        <v>114228</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>152083</v>
+        <v>152179</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.309533194556426</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2657226479030476</v>
+        <v>0.2655052242781625</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3534918909074204</v>
+        <v>0.353715228189629</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>218</v>
@@ -4043,19 +4043,19 @@
         <v>221419</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198713</v>
+        <v>197554</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>250071</v>
+        <v>248606</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2503669259857584</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2246926999870785</v>
+        <v>0.2233823419751258</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2827653178705924</v>
+        <v>0.2811088675888149</v>
       </c>
     </row>
     <row r="7">
@@ -4072,19 +4072,19 @@
         <v>72005</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57352</v>
+        <v>56948</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88992</v>
+        <v>87563</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1585503803331748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1262862323131049</v>
+        <v>0.1253967816457227</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1959542594078696</v>
+        <v>0.1928080668955633</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>74</v>
@@ -4093,19 +4093,19 @@
         <v>77778</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63679</v>
+        <v>62713</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96706</v>
+        <v>95814</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1807820494865181</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1480125723566131</v>
+        <v>0.1457665496725795</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.224776911479812</v>
+        <v>0.2227039819052138</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>145</v>
@@ -4114,19 +4114,19 @@
         <v>149783</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>129640</v>
+        <v>127186</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>172704</v>
+        <v>174130</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1693656072687202</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1465892361775441</v>
+        <v>0.1438145662542934</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1952830044778643</v>
+        <v>0.1968956260683417</v>
       </c>
     </row>
     <row r="8">
@@ -4218,19 +4218,19 @@
         <v>213276</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>188882</v>
+        <v>187887</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>236580</v>
+        <v>238483</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.310405984090285</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.274901986153937</v>
+        <v>0.2734540431971667</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3443234563466541</v>
+        <v>0.3470930076868462</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>139</v>
@@ -4239,19 +4239,19 @@
         <v>148789</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>126239</v>
+        <v>130546</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>170872</v>
+        <v>170335</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2438150187820593</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2068624607114034</v>
+        <v>0.213921032476993</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2800003052428543</v>
+        <v>0.2791208504731288</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>346</v>
@@ -4260,19 +4260,19 @@
         <v>362065</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>330544</v>
+        <v>329777</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>397253</v>
+        <v>394514</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2790823372028539</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2547854890040048</v>
+        <v>0.2541941708695094</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3062055111282566</v>
+        <v>0.3040943866452198</v>
       </c>
     </row>
     <row r="10">
@@ -4289,19 +4289,19 @@
         <v>169169</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>148043</v>
+        <v>147636</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191921</v>
+        <v>192736</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2462115773409879</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2154653550733713</v>
+        <v>0.2148724898127952</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2793252863606773</v>
+        <v>0.2805113414365165</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>114</v>
@@ -4310,19 +4310,19 @@
         <v>122237</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>101780</v>
+        <v>103455</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>141877</v>
+        <v>146588</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2003052901648495</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.166782759736099</v>
+        <v>0.1695271669029139</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2324885608082971</v>
+        <v>0.2402085921367732</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>282</v>
@@ -4331,19 +4331,19 @@
         <v>291406</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>261426</v>
+        <v>264390</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>322750</v>
+        <v>324039</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2246177721939594</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.201509027168077</v>
+        <v>0.2037934534262474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2487781158166495</v>
+        <v>0.2497714873552712</v>
       </c>
     </row>
     <row r="11">
@@ -4360,19 +4360,19 @@
         <v>180917</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>158759</v>
+        <v>159380</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>208048</v>
+        <v>204296</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2633103594763975</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2310611956924162</v>
+        <v>0.2319642778862358</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.302796845278241</v>
+        <v>0.297336195975769</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>186</v>
@@ -4381,19 +4381,19 @@
         <v>197709</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>172640</v>
+        <v>175319</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>220894</v>
+        <v>219873</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3239776187244283</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2828984997192532</v>
+        <v>0.2872882664013157</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3619697271744627</v>
+        <v>0.3602965313476597</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>363</v>
@@ -4402,19 +4402,19 @@
         <v>378626</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>345414</v>
+        <v>347854</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>412399</v>
+        <v>414065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2918475611450871</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.266247249534289</v>
+        <v>0.2681285462278002</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3178796227584216</v>
+        <v>0.3191638113133667</v>
       </c>
     </row>
     <row r="12">
@@ -4431,19 +4431,19 @@
         <v>123725</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>102442</v>
+        <v>103873</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>145056</v>
+        <v>144896</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1800720790923296</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1490967042229626</v>
+        <v>0.1511781187095555</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2111179438197658</v>
+        <v>0.2108850229984174</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>132</v>
@@ -4452,19 +4452,19 @@
         <v>141519</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>120243</v>
+        <v>121152</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>163086</v>
+        <v>162118</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2319020723286629</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1970381025852604</v>
+        <v>0.19852609427237</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2672421033149267</v>
+        <v>0.2656563250718728</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>247</v>
@@ -4473,19 +4473,19 @@
         <v>265245</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>236572</v>
+        <v>236819</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>296229</v>
+        <v>295523</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2044523294580996</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1823515737117342</v>
+        <v>0.1825414763289769</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.228335142043339</v>
+        <v>0.2277908450232749</v>
       </c>
     </row>
     <row r="13">
@@ -4577,19 +4577,19 @@
         <v>190571</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>166238</v>
+        <v>167900</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>214408</v>
+        <v>214563</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2794851608451329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2437994529133325</v>
+        <v>0.2462376647134099</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3144446752559153</v>
+        <v>0.3146715573698308</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>130</v>
@@ -4598,19 +4598,19 @@
         <v>144284</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>122826</v>
+        <v>123984</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>167991</v>
+        <v>168366</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2029742790210295</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1727878248577037</v>
+        <v>0.1744160995336683</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2363235451916003</v>
+        <v>0.2368516632847658</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>311</v>
@@ -4619,19 +4619,19 @@
         <v>334855</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>303115</v>
+        <v>303542</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>370404</v>
+        <v>373777</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2404334963888102</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2176440494692771</v>
+        <v>0.2179504009416961</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2659585526330987</v>
+        <v>0.2683808072003048</v>
       </c>
     </row>
     <row r="15">
@@ -4648,19 +4648,19 @@
         <v>144568</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>123852</v>
+        <v>123501</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>167085</v>
+        <v>167073</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2120189234102961</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.181637218677206</v>
+        <v>0.1811235146058935</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.245041707622681</v>
+        <v>0.2450244804490086</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>108</v>
@@ -4669,19 +4669,19 @@
         <v>113231</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>92863</v>
+        <v>94382</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>132679</v>
+        <v>135143</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1592893188339454</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1306368484948363</v>
+        <v>0.1327739238650658</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1866478318568061</v>
+        <v>0.1901139768103606</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>247</v>
@@ -4690,19 +4690,19 @@
         <v>257798</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>229376</v>
+        <v>231694</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>287586</v>
+        <v>293678</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.185105381496556</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1646975390567178</v>
+        <v>0.1663616684876491</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2064937273055046</v>
+        <v>0.2108678212091626</v>
       </c>
     </row>
     <row r="16">
@@ -4719,19 +4719,19 @@
         <v>189830</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>168633</v>
+        <v>166294</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>216957</v>
+        <v>218261</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2783990422976925</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.24731151912247</v>
+        <v>0.2438822599938719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3181833447063857</v>
+        <v>0.3200947549152903</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>208</v>
@@ -4740,19 +4740,19 @@
         <v>217681</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>194570</v>
+        <v>195311</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>243281</v>
+        <v>243393</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3062259228058143</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2737152407119885</v>
+        <v>0.2747572239253804</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3422395540536716</v>
+        <v>0.3423976776914515</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>387</v>
@@ -4761,19 +4761,19 @@
         <v>407510</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>373937</v>
+        <v>372000</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>445921</v>
+        <v>441949</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2926020677309586</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2684955312210111</v>
+        <v>0.2671047292959612</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3201821184897668</v>
+        <v>0.3173296672153827</v>
       </c>
     </row>
     <row r="17">
@@ -4790,19 +4790,19 @@
         <v>156895</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>134201</v>
+        <v>133916</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>179018</v>
+        <v>179235</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2300968734468785</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1968150748819158</v>
+        <v>0.1963970447870187</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2625429577116546</v>
+        <v>0.2628612768757876</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>221</v>
@@ -4811,19 +4811,19 @@
         <v>235654</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>210271</v>
+        <v>211111</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>261289</v>
+        <v>261848</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3315104793392108</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2958024827767183</v>
+        <v>0.2969832953718761</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3675721725457041</v>
+        <v>0.3683596994410138</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>373</v>
@@ -4832,19 +4832,19 @@
         <v>392548</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>357644</v>
+        <v>357120</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426603</v>
+        <v>429782</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2818590543836752</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2567971064158573</v>
+        <v>0.2564206027529445</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3063106765520312</v>
+        <v>0.3085935250836856</v>
       </c>
     </row>
     <row r="18">
@@ -4936,19 +4936,19 @@
         <v>166389</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>145953</v>
+        <v>145122</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>189483</v>
+        <v>191319</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2707200847190388</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.237469490479258</v>
+        <v>0.2361184700558779</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3082951756178767</v>
+        <v>0.3112814946742002</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>107</v>
@@ -4957,19 +4957,19 @@
         <v>125999</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106143</v>
+        <v>105070</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>152290</v>
+        <v>147580</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2044769910839082</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1722536491388113</v>
+        <v>0.1705126876525835</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.247144045358261</v>
+        <v>0.23950000581754</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>257</v>
@@ -4978,19 +4978,19 @@
         <v>292388</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>260509</v>
+        <v>260995</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>328550</v>
+        <v>323193</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2375559545771174</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2116552306283516</v>
+        <v>0.2120503419877967</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2669371023735662</v>
+        <v>0.2625847153948124</v>
       </c>
     </row>
     <row r="20">
@@ -5007,19 +5007,19 @@
         <v>116861</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>96574</v>
+        <v>97370</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>138914</v>
+        <v>140762</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1901364920980603</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1571291351821225</v>
+        <v>0.158424250828953</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2260179113247828</v>
+        <v>0.2290243740391474</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>84</v>
@@ -5028,19 +5028,19 @@
         <v>95568</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78189</v>
+        <v>77805</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>116058</v>
+        <v>115078</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1550928546303</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1268890205211966</v>
+        <v>0.1262668341689766</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1883450175269871</v>
+        <v>0.1867541505729518</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>186</v>
@@ -5049,19 +5049,19 @@
         <v>212429</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>185905</v>
+        <v>182220</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>242902</v>
+        <v>242333</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1725921461164473</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1510422914890621</v>
+        <v>0.14804789108566</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1973502817891158</v>
+        <v>0.1968880139953932</v>
       </c>
     </row>
     <row r="21">
@@ -5078,19 +5078,19 @@
         <v>194170</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>172603</v>
+        <v>169339</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>222003</v>
+        <v>219916</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3159195312132366</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.28082951269811</v>
+        <v>0.275519265310728</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3612051783452647</v>
+        <v>0.3578091079037064</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>157</v>
@@ -5099,19 +5099,19 @@
         <v>175909</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>153019</v>
+        <v>154800</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>199861</v>
+        <v>200474</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2854745946072474</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2483279448471811</v>
+        <v>0.2512169102767374</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3243454217654844</v>
+        <v>0.325339210291071</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>329</v>
@@ -5120,19 +5120,19 @@
         <v>370079</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>337721</v>
+        <v>332363</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>404963</v>
+        <v>405848</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3006774918645774</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2743878748044153</v>
+        <v>0.2700343644756905</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3290201953727631</v>
+        <v>0.3297389240025206</v>
       </c>
     </row>
     <row r="22">
@@ -5149,19 +5149,19 @@
         <v>137197</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>115966</v>
+        <v>116505</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159446</v>
+        <v>160836</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2232238919696643</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1886800912985372</v>
+        <v>0.1895568780502295</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2594227479496339</v>
+        <v>0.2616856323435872</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>191</v>
@@ -5170,19 +5170,19 @@
         <v>218723</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>195521</v>
+        <v>193289</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>243979</v>
+        <v>243999</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3549555596785443</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3173021595340292</v>
+        <v>0.313679820798741</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3959421939299492</v>
+        <v>0.3959738841074201</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>315</v>
@@ -5191,19 +5191,19 @@
         <v>355920</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>319230</v>
+        <v>321995</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>386748</v>
+        <v>393416</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2891744074418579</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2593644552633055</v>
+        <v>0.2616111755121185</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3142208252177321</v>
+        <v>0.3196385690193139</v>
       </c>
     </row>
     <row r="23">
@@ -5295,19 +5295,19 @@
         <v>100980</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>82672</v>
+        <v>83051</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>122409</v>
+        <v>120212</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.235150448709217</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.192516725035746</v>
+        <v>0.193399335752977</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2850507315878261</v>
+        <v>0.2799339053679744</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>74</v>
@@ -5316,19 +5316,19 @@
         <v>79783</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>64133</v>
+        <v>64000</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>97268</v>
+        <v>96833</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1781661814398836</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1432170467395576</v>
+        <v>0.1429207130305622</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.217212065915571</v>
+        <v>0.2162412175803345</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>164</v>
@@ -5337,19 +5337,19 @@
         <v>180763</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>156197</v>
+        <v>157191</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>206558</v>
+        <v>205968</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2060616358332201</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1780577331022969</v>
+        <v>0.1791903245348613</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.235466237115076</v>
+        <v>0.2347933212667124</v>
       </c>
     </row>
     <row r="25">
@@ -5366,19 +5366,19 @@
         <v>92185</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>75782</v>
+        <v>74859</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>111246</v>
+        <v>111522</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2146691219473652</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1764717557396374</v>
+        <v>0.1743224646354043</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2590556931491609</v>
+        <v>0.259699099091502</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -5387,19 +5387,19 @@
         <v>59793</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45136</v>
+        <v>45551</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>76166</v>
+        <v>75748</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.133525915668577</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1007958944035117</v>
+        <v>0.1017208974688326</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1700901674311157</v>
+        <v>0.1691568497427212</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>140</v>
@@ -5408,19 +5408,19 @@
         <v>151978</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>127658</v>
+        <v>129687</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>175728</v>
+        <v>177883</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1732478725971549</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1455237472129638</v>
+        <v>0.1478373500213112</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2003217222468554</v>
+        <v>0.2027784426039585</v>
       </c>
     </row>
     <row r="26">
@@ -5437,19 +5437,19 @@
         <v>120990</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>103703</v>
+        <v>101812</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>142055</v>
+        <v>141344</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.281745372674869</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2414907149146528</v>
+        <v>0.2370869490267088</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3307995999111773</v>
+        <v>0.3291435916867989</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>114</v>
@@ -5458,19 +5458,19 @@
         <v>130135</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>110597</v>
+        <v>111436</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>152788</v>
+        <v>151213</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2906090150228534</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2469789297925482</v>
+        <v>0.2488530439226197</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3411975582690502</v>
+        <v>0.3376804925938302</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>227</v>
@@ -5479,19 +5479,19 @@
         <v>251124</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>223392</v>
+        <v>221479</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>282192</v>
+        <v>279226</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2862700045779458</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2546568964848047</v>
+        <v>0.2524754041508795</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3216853320800351</v>
+        <v>0.3183042906626654</v>
       </c>
     </row>
     <row r="27">
@@ -5508,19 +5508,19 @@
         <v>115274</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>96714</v>
+        <v>96190</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>133335</v>
+        <v>133826</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2684350566685487</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2252150358942941</v>
+        <v>0.2239959140515682</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3104945677652577</v>
+        <v>0.3116375620196595</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>162</v>
@@ -5529,19 +5529,19 @@
         <v>178090</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>155091</v>
+        <v>157551</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>198624</v>
+        <v>201242</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.397698887868686</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3463388823957684</v>
+        <v>0.3518330229811011</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4435546027927129</v>
+        <v>0.4494010933341991</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>268</v>
@@ -5550,19 +5550,19 @@
         <v>293363</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>265783</v>
+        <v>264767</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>325542</v>
+        <v>323227</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3344204869916793</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3029803517462916</v>
+        <v>0.3018219960654653</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3711030728565766</v>
+        <v>0.3684631160115407</v>
       </c>
     </row>
     <row r="28">
@@ -5654,19 +5654,19 @@
         <v>82477</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>67630</v>
+        <v>66739</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>101484</v>
+        <v>98670</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2662381130031312</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2183126260147779</v>
+        <v>0.2154356432313392</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3275929714339598</v>
+        <v>0.318510750365981</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>68</v>
@@ -5675,19 +5675,19 @@
         <v>71668</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>57110</v>
+        <v>56848</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>88583</v>
+        <v>87964</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2024545353961862</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1613284607764922</v>
+        <v>0.1605902067131507</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2502384592725049</v>
+        <v>0.2484877483189407</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>143</v>
@@ -5696,19 +5696,19 @@
         <v>154145</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>131943</v>
+        <v>133326</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>178545</v>
+        <v>177224</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2322222386086325</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.198774642591322</v>
+        <v>0.2008580054629383</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2689814919211055</v>
+        <v>0.2669917207547445</v>
       </c>
     </row>
     <row r="30">
@@ -5725,19 +5725,19 @@
         <v>70443</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>55474</v>
+        <v>55576</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>86453</v>
+        <v>86290</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.227393375619554</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1790710158880515</v>
+        <v>0.1794001737524083</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2790739982810904</v>
+        <v>0.2785462640791071</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>51</v>
@@ -5746,19 +5746,19 @@
         <v>52685</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>40539</v>
+        <v>40461</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>67441</v>
+        <v>67353</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1488294743871308</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1145191868550289</v>
+        <v>0.1142978756282597</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1905141830740459</v>
+        <v>0.190264261912939</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>114</v>
@@ -5767,19 +5767,19 @@
         <v>123128</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>102943</v>
+        <v>102723</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>145800</v>
+        <v>145493</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1854951332109481</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1550853548335114</v>
+        <v>0.1547541594491165</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2196508127339487</v>
+        <v>0.2191878218852641</v>
       </c>
     </row>
     <row r="31">
@@ -5796,19 +5796,19 @@
         <v>78657</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>62980</v>
+        <v>63926</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>95593</v>
+        <v>95563</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2539061768511808</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2033022333769082</v>
+        <v>0.2063559148046221</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3085782159606553</v>
+        <v>0.3084818472412095</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>95</v>
@@ -5817,19 +5817,19 @@
         <v>98889</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>83296</v>
+        <v>82112</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>116943</v>
+        <v>114739</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2793496051823185</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2353034787646297</v>
+        <v>0.2319587745731319</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3303507601382759</v>
+        <v>0.3241259278094756</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>167</v>
@@ -5838,19 +5838,19 @@
         <v>177545</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>154821</v>
+        <v>155079</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>200902</v>
+        <v>203406</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2674751940613909</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2332411327655749</v>
+        <v>0.2336294865649389</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3026619559541583</v>
+        <v>0.3064348421749155</v>
       </c>
     </row>
     <row r="32">
@@ -5867,19 +5867,19 @@
         <v>78209</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>63564</v>
+        <v>62413</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>95665</v>
+        <v>94259</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2524623345261341</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2051857254204093</v>
+        <v>0.2014715960926914</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3088112597807269</v>
+        <v>0.3042705577637508</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>130</v>
@@ -5888,19 +5888,19 @@
         <v>130754</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>112075</v>
+        <v>112303</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>148924</v>
+        <v>149370</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3693663850343645</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3165985780418814</v>
+        <v>0.3172433809650401</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4206926904202458</v>
+        <v>0.4219536439127423</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>202</v>
@@ -5909,19 +5909,19 @@
         <v>208964</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>184863</v>
+        <v>185027</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>231698</v>
+        <v>233218</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3148074341190285</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2784988432845832</v>
+        <v>0.2787463241739921</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3490569448590586</v>
+        <v>0.3513473636887148</v>
       </c>
     </row>
     <row r="33">
@@ -6013,19 +6013,19 @@
         <v>63439</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>48644</v>
+        <v>50531</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>79036</v>
+        <v>80277</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.253907936824026</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1946939804901676</v>
+        <v>0.2022432017917848</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3163336522604904</v>
+        <v>0.3212982901036976</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>61</v>
@@ -6034,19 +6034,19 @@
         <v>68742</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>53555</v>
+        <v>54254</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>84619</v>
+        <v>86314</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1767254454577308</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1376811965832522</v>
+        <v>0.1394785697542404</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2175418832274433</v>
+        <v>0.2218986169807621</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>117</v>
@@ -6055,19 +6055,19 @@
         <v>132182</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>112361</v>
+        <v>112519</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>154447</v>
+        <v>154804</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2069120613557339</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1758859781464162</v>
+        <v>0.1761329519576276</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2417652752850671</v>
+        <v>0.2423240640852781</v>
       </c>
     </row>
     <row r="35">
@@ -6084,19 +6084,19 @@
         <v>43335</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>31742</v>
+        <v>31259</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>56830</v>
+        <v>56915</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1734437470999362</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1270431705184333</v>
+        <v>0.1251116244253789</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.227454080164728</v>
+        <v>0.2277945300147249</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>50</v>
@@ -6105,19 +6105,19 @@
         <v>54924</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>41139</v>
+        <v>41500</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>69824</v>
+        <v>68133</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1412004561241804</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.105762016691782</v>
+        <v>0.1066902463478558</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1795070458783279</v>
+        <v>0.1751575549929738</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>89</v>
@@ -6126,19 +6126,19 @@
         <v>98259</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>80232</v>
+        <v>80338</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>119152</v>
+        <v>119002</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1538110342843683</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1255922440615752</v>
+        <v>0.1257586350520742</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1865160526159811</v>
+        <v>0.1862819048459061</v>
       </c>
     </row>
     <row r="36">
@@ -6155,19 +6155,19 @@
         <v>62804</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>49102</v>
+        <v>48945</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>77862</v>
+        <v>78335</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2513641607402951</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1965253334558899</v>
+        <v>0.1958981973504304</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3116325425679068</v>
+        <v>0.3135249412616909</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>77</v>
@@ -6176,19 +6176,19 @@
         <v>85138</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>70117</v>
+        <v>69403</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>104526</v>
+        <v>102915</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2188744129804507</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1802598400882142</v>
+        <v>0.1784245328661049</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2687182104711157</v>
+        <v>0.2645783079321375</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>134</v>
@@ -6197,19 +6197,19 @@
         <v>147941</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>128589</v>
+        <v>125785</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>173117</v>
+        <v>170449</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.231581382124462</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2012877428469843</v>
+        <v>0.1968995250135435</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2709909059659419</v>
+        <v>0.2668148415037339</v>
       </c>
     </row>
     <row r="37">
@@ -6226,19 +6226,19 @@
         <v>80273</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>65474</v>
+        <v>65455</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>97469</v>
+        <v>95600</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3212841553357428</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2620514060069598</v>
+        <v>0.2619752686066953</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.390107040851517</v>
+        <v>0.3826288529814173</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>162</v>
@@ -6247,19 +6247,19 @@
         <v>180175</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>160666</v>
+        <v>158933</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>200088</v>
+        <v>199999</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4631996854376381</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4130454843166402</v>
+        <v>0.4085897489694497</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5143935842415844</v>
+        <v>0.5141650499629838</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>232</v>
@@ -6268,19 +6268,19 @@
         <v>260448</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>234172</v>
+        <v>235167</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>285549</v>
+        <v>286242</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4076955222354359</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3665639000698122</v>
+        <v>0.36812172373323</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4469879266088543</v>
+        <v>0.448071647532467</v>
       </c>
     </row>
     <row r="38">
@@ -6372,19 +6372,19 @@
         <v>997376</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>948852</v>
+        <v>943137</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1055795</v>
+        <v>1054004</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2910535930450179</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2768932143492414</v>
+        <v>0.2752253967408553</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3081012824827117</v>
+        <v>0.3075785766963139</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>710</v>
@@ -6393,19 +6393,19 @@
         <v>771265</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>718947</v>
+        <v>724424</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>817043</v>
+        <v>827762</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2167505121837277</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2020473613071753</v>
+        <v>0.2035865718756989</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2296154547280449</v>
+        <v>0.2326278379591582</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1646</v>
@@ -6414,19 +6414,19 @@
         <v>1768642</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1693692</v>
+        <v>1697682</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1843501</v>
+        <v>1847545</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2532024836711049</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2424724803916902</v>
+        <v>0.243043756364874</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2639194596493848</v>
+        <v>0.2644985047107306</v>
       </c>
     </row>
     <row r="40">
@@ -6443,19 +6443,19 @@
         <v>750210</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>700282</v>
+        <v>702738</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>803280</v>
+        <v>798588</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.218925710763864</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2043558320127138</v>
+        <v>0.2050723511240073</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2344126012741114</v>
+        <v>0.2330432381808674</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>550</v>
@@ -6464,19 +6464,19 @@
         <v>585720</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>537157</v>
+        <v>539048</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>628285</v>
+        <v>632212</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.164606294819585</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1509586084169336</v>
+        <v>0.1514899978879582</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1765685355028452</v>
+        <v>0.1776720915499016</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1254</v>
@@ -6485,19 +6485,19 @@
         <v>1335930</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1268853</v>
+        <v>1267162</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1405925</v>
+        <v>1403868</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1912545815159095</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1816516388267115</v>
+        <v>0.1814096529849796</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.201275188120643</v>
+        <v>0.2009806921768502</v>
       </c>
     </row>
     <row r="41">
@@ -6514,19 +6514,19 @@
         <v>915614</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>865271</v>
+        <v>863103</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>970826</v>
+        <v>966373</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2671939014142596</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2525026347292947</v>
+        <v>0.2518700094104719</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.283305760379078</v>
+        <v>0.2820061075820993</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>966</v>
@@ -6535,19 +6535,19 @@
         <v>1038630</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>985008</v>
+        <v>982109</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1097539</v>
+        <v>1093768</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2918887040485966</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2768191485803739</v>
+        <v>0.2760045279322172</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3084439025743928</v>
+        <v>0.3073841929959465</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1825</v>
@@ -6556,19 +6556,19 @@
         <v>1954245</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1881383</v>
+        <v>1874792</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2033863</v>
+        <v>2028014</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2797738061052163</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2693427474788953</v>
+        <v>0.2683991382405985</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2911722039478739</v>
+        <v>0.2903348205521639</v>
       </c>
     </row>
     <row r="42">
@@ -6585,19 +6585,19 @@
         <v>763578</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>714716</v>
+        <v>708279</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>819531</v>
+        <v>817110</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2228267947768585</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2085679867192891</v>
+        <v>0.206689313518852</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2391548963825768</v>
+        <v>0.2384484213747543</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1072</v>
@@ -6606,19 +6606,19 @@
         <v>1162693</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1110747</v>
+        <v>1103643</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1230124</v>
+        <v>1219124</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3267544889480907</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3121557966451844</v>
+        <v>0.310159459133678</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3457045972580773</v>
+        <v>0.3426132049751353</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1782</v>
@@ -6627,19 +6627,19 @@
         <v>1926272</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1848177</v>
+        <v>1853477</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2007503</v>
+        <v>2006743</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2757691287077692</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2645889654742643</v>
+        <v>0.2653476587535326</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2873984251039456</v>
+        <v>0.2872896069623712</v>
       </c>
     </row>
     <row r="43">
@@ -6974,19 +6974,19 @@
         <v>167034</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>147637</v>
+        <v>145379</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>188314</v>
+        <v>187677</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3982101836161287</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3519657974413372</v>
+        <v>0.3465840482907796</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4489409635353281</v>
+        <v>0.4474217245851875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>128</v>
@@ -6995,19 +6995,19 @@
         <v>127552</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>110168</v>
+        <v>110569</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>147366</v>
+        <v>146001</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3223013795809549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2783732019106665</v>
+        <v>0.2793873177765774</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.372367756789309</v>
+        <v>0.368916463332167</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>282</v>
@@ -7016,19 +7016,19 @@
         <v>294587</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>266411</v>
+        <v>267991</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>323264</v>
+        <v>322855</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3613595633997997</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3267973900700285</v>
+        <v>0.3287349618274693</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3965374591001937</v>
+        <v>0.396035525523646</v>
       </c>
     </row>
     <row r="5">
@@ -7045,19 +7045,19 @@
         <v>111847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>93076</v>
+        <v>93191</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130689</v>
+        <v>130130</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2666441714546917</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2218940448129603</v>
+        <v>0.2221673253215735</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3115633417542493</v>
+        <v>0.3102308217219074</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>97</v>
@@ -7066,19 +7066,19 @@
         <v>94167</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77602</v>
+        <v>78154</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>110817</v>
+        <v>112182</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2379423981468678</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1960861186397926</v>
+        <v>0.1974807330970053</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2800144007160087</v>
+        <v>0.2834634695602407</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>204</v>
@@ -7087,19 +7087,19 @@
         <v>206014</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>181747</v>
+        <v>179338</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>230510</v>
+        <v>230670</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2527106342168807</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2229432130730571</v>
+        <v>0.2199873261611895</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2827588522426532</v>
+        <v>0.2829550061435312</v>
       </c>
     </row>
     <row r="6">
@@ -7116,19 +7116,19 @@
         <v>93911</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77908</v>
+        <v>78465</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112759</v>
+        <v>111503</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2238844094789781</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1857333599613588</v>
+        <v>0.1870613322239153</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2688171454998056</v>
+        <v>0.2658227916663389</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>129</v>
@@ -7137,19 +7137,19 @@
         <v>124079</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>103877</v>
+        <v>106310</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>141943</v>
+        <v>141887</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3135252546930802</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2624769692266132</v>
+        <v>0.2686268841993842</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.358662827884302</v>
+        <v>0.3585219916373497</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>217</v>
@@ -7158,19 +7158,19 @@
         <v>217990</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>192938</v>
+        <v>193881</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>243506</v>
+        <v>245964</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2674013741425889</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2366698735167986</v>
+        <v>0.2378265905896579</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2986999348581507</v>
+        <v>0.3017157867306262</v>
       </c>
     </row>
     <row r="7">
@@ -7187,19 +7187,19 @@
         <v>46670</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34593</v>
+        <v>35410</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61348</v>
+        <v>60647</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1112612354502016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08246892581596468</v>
+        <v>0.08441718023987195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1462540101356101</v>
+        <v>0.1445821224539348</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -7208,19 +7208,19 @@
         <v>49957</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37924</v>
+        <v>39050</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64372</v>
+        <v>65421</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.126230967579097</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09582594340801182</v>
+        <v>0.09867092997551245</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1626555803768748</v>
+        <v>0.1653069178853761</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -7229,19 +7229,19 @@
         <v>96627</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79878</v>
+        <v>78207</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>116194</v>
+        <v>116277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1185284282407307</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09798371257269077</v>
+        <v>0.09593334281438158</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1425310674856647</v>
+        <v>0.1426330622654534</v>
       </c>
     </row>
     <row r="8">
@@ -7333,19 +7333,19 @@
         <v>169763</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>148790</v>
+        <v>146107</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>193691</v>
+        <v>191254</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2874926151042119</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2519742013756936</v>
+        <v>0.2474303330236558</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3280145453099486</v>
+        <v>0.3238862206639869</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>148</v>
@@ -7354,19 +7354,19 @@
         <v>145747</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>127774</v>
+        <v>125358</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>166408</v>
+        <v>167278</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2586251066860856</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2267322157176063</v>
+        <v>0.2224454199098757</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2952890488018401</v>
+        <v>0.2968328309019237</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>312</v>
@@ -7375,19 +7375,19 @@
         <v>315510</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>285914</v>
+        <v>286127</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>343936</v>
+        <v>344241</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2733959609167677</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2477504877295826</v>
+        <v>0.247934742309037</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2980281127246553</v>
+        <v>0.2982920096483025</v>
       </c>
     </row>
     <row r="10">
@@ -7404,19 +7404,19 @@
         <v>149712</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>131427</v>
+        <v>130141</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>173057</v>
+        <v>172772</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2535361137352862</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.222570921701016</v>
+        <v>0.2203934231189959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.293070359940658</v>
+        <v>0.2925876455108125</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -7425,19 +7425,19 @@
         <v>140416</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120809</v>
+        <v>121979</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>160122</v>
+        <v>162026</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2491665532259172</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2143744663605278</v>
+        <v>0.2164492796729696</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2841334202408058</v>
+        <v>0.2875117677440511</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>292</v>
@@ -7446,19 +7446,19 @@
         <v>290128</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>262607</v>
+        <v>260964</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>321507</v>
+        <v>319663</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2514023589768392</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2275544608644613</v>
+        <v>0.2261305754731239</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2785929576448596</v>
+        <v>0.2769944497588241</v>
       </c>
     </row>
     <row r="11">
@@ -7475,19 +7475,19 @@
         <v>180339</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>156038</v>
+        <v>158145</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>203600</v>
+        <v>203639</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3054021986948296</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2642491284317037</v>
+        <v>0.2678177817920295</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3447942602316251</v>
+        <v>0.3448602472624249</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>184</v>
@@ -7496,19 +7496,19 @@
         <v>178339</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>156986</v>
+        <v>157797</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>200021</v>
+        <v>200439</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3164598887908213</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2785690193195382</v>
+        <v>0.280009129587868</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3549348915654931</v>
+        <v>0.3556761706040019</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>353</v>
@@ -7517,19 +7517,19 @@
         <v>358678</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>331082</v>
+        <v>329328</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>390959</v>
+        <v>390234</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3108019176846835</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2868894368810149</v>
+        <v>0.285369800423922</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3387738624977346</v>
+        <v>0.3381462553657086</v>
       </c>
     </row>
     <row r="12">
@@ -7546,19 +7546,19 @@
         <v>90682</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>74839</v>
+        <v>74114</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>109508</v>
+        <v>109944</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1535690724656723</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1267385988983301</v>
+        <v>0.1255110522168637</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1854516018703438</v>
+        <v>0.1861896337696862</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>102</v>
@@ -7567,19 +7567,19 @@
         <v>99042</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>81571</v>
+        <v>83207</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>117257</v>
+        <v>119281</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1757484512971759</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1447466066514038</v>
+        <v>0.1476493567591706</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2080714124541194</v>
+        <v>0.2116617455465203</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>189</v>
@@ -7588,19 +7588,19 @@
         <v>189724</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>165540</v>
+        <v>166437</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>214306</v>
+        <v>214120</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1643997624217098</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1434436466901939</v>
+        <v>0.1442209827739082</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1857005167303683</v>
+        <v>0.1855392079394175</v>
       </c>
     </row>
     <row r="13">
@@ -7692,19 +7692,19 @@
         <v>185640</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>161764</v>
+        <v>161686</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>211180</v>
+        <v>207829</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2774486033618337</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2417648642700643</v>
+        <v>0.2416474867193226</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3156196312532407</v>
+        <v>0.3106114914056752</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>170</v>
@@ -7713,19 +7713,19 @@
         <v>172573</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>150949</v>
+        <v>150376</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>194708</v>
+        <v>195148</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2609269164879558</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2282319843535955</v>
+        <v>0.2273654826511284</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2943942261406232</v>
+        <v>0.295059768905213</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>346</v>
@@ -7734,19 +7734,19 @@
         <v>358213</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>326270</v>
+        <v>326522</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>391170</v>
+        <v>392384</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2692356331409051</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2452265655602838</v>
+        <v>0.2454161468271532</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2940061087321655</v>
+        <v>0.2949186032454127</v>
       </c>
     </row>
     <row r="15">
@@ -7763,19 +7763,19 @@
         <v>161600</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>139579</v>
+        <v>141689</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>184713</v>
+        <v>185181</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2415200468437784</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2086085542605666</v>
+        <v>0.2117622649378839</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2760623794929896</v>
+        <v>0.2767626822522401</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>162</v>
@@ -7784,19 +7784,19 @@
         <v>160809</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>139543</v>
+        <v>139216</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>183511</v>
+        <v>184496</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.243139735766509</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.210986042989718</v>
+        <v>0.2104915427663722</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2774637101206955</v>
+        <v>0.2789542832142208</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>313</v>
@@ -7805,19 +7805,19 @@
         <v>322410</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>292557</v>
+        <v>294758</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>356172</v>
+        <v>358205</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2423251980968618</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2198881439602053</v>
+        <v>0.2215417707532895</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2677011683678356</v>
+        <v>0.2692291587470697</v>
       </c>
     </row>
     <row r="16">
@@ -7834,19 +7834,19 @@
         <v>203257</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>179467</v>
+        <v>179829</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>229773</v>
+        <v>227036</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.303778128989044</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2682228453504727</v>
+        <v>0.2687630626214837</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3434080021531631</v>
+        <v>0.3393167265737863</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>182</v>
@@ -7855,19 +7855,19 @@
         <v>179880</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>159760</v>
+        <v>157075</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>206510</v>
+        <v>203190</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.271975039663326</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2415526755468784</v>
+        <v>0.2374929931829447</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3122383266321432</v>
+        <v>0.3072182908594234</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>382</v>
@@ -7876,19 +7876,19 @@
         <v>383138</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>351110</v>
+        <v>351563</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>414821</v>
+        <v>414667</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2879687369118566</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2638968467050419</v>
+        <v>0.2642373462446285</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3117819424843701</v>
+        <v>0.3116667649034074</v>
       </c>
     </row>
     <row r="17">
@@ -7905,19 +7905,19 @@
         <v>118600</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98255</v>
+        <v>99065</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>138439</v>
+        <v>139996</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1772532208053438</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.146846654190242</v>
+        <v>0.1480573038488226</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2069049287132213</v>
+        <v>0.2092305646012401</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>151</v>
@@ -7926,19 +7926,19 @@
         <v>148123</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>127642</v>
+        <v>128283</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>169560</v>
+        <v>170659</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2239583080822093</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.192991168760331</v>
+        <v>0.1939613789479168</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2563707875487541</v>
+        <v>0.2580321156465317</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>262</v>
@@ -7947,19 +7947,19 @@
         <v>266723</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>240471</v>
+        <v>236870</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>296874</v>
+        <v>296074</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2004704318503765</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1807396943540819</v>
+        <v>0.1780331070531746</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2231327750628015</v>
+        <v>0.2225314076687837</v>
       </c>
     </row>
     <row r="18">
@@ -8051,19 +8051,19 @@
         <v>157141</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>135442</v>
+        <v>133439</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>180193</v>
+        <v>180310</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2432349803797355</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2096476186522755</v>
+        <v>0.2065468476652881</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2789152481734632</v>
+        <v>0.2790966116247996</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>133</v>
@@ -8072,19 +8072,19 @@
         <v>146225</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>124229</v>
+        <v>126236</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>170112</v>
+        <v>170354</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2252811225784588</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1913937457425093</v>
+        <v>0.1944853759872215</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2620835244751573</v>
+        <v>0.2624558002833918</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>270</v>
@@ -8093,19 +8093,19 @@
         <v>303366</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>269151</v>
+        <v>270179</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>337475</v>
+        <v>335033</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2342370589968989</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2078183895370833</v>
+        <v>0.2086125777142681</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2605734923056575</v>
+        <v>0.2586878851475802</v>
       </c>
     </row>
     <row r="20">
@@ -8122,19 +8122,19 @@
         <v>144731</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>124267</v>
+        <v>122528</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>170436</v>
+        <v>166918</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2240246129818133</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1923494634320415</v>
+        <v>0.1896578751140182</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2638130839152006</v>
+        <v>0.2583680093623495</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>101</v>
@@ -8143,19 +8143,19 @@
         <v>109666</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>92661</v>
+        <v>91607</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>134248</v>
+        <v>130885</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1689567503600528</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1427586909650913</v>
+        <v>0.1411347309556076</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2068292424387059</v>
+        <v>0.2016481174494999</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>232</v>
@@ -8164,19 +8164,19 @@
         <v>254397</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>224061</v>
+        <v>226521</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>283503</v>
+        <v>289517</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.196426293775107</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1730029959954082</v>
+        <v>0.1749029965223843</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2188997697961978</v>
+        <v>0.2235439535903874</v>
       </c>
     </row>
     <row r="21">
@@ -8193,19 +8193,19 @@
         <v>196025</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>169381</v>
+        <v>173829</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>219950</v>
+        <v>220273</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.303420988376444</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2621798122741505</v>
+        <v>0.2690653539310992</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3404551653998362</v>
+        <v>0.3409549859106329</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>183</v>
@@ -8214,19 +8214,19 @@
         <v>195983</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>171383</v>
+        <v>174332</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>222459</v>
+        <v>219990</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3019413845603853</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2640415654023152</v>
+        <v>0.268585015995186</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3427306778416324</v>
+        <v>0.3389281402617439</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>362</v>
@@ -8235,19 +8235,19 @@
         <v>392008</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>359478</v>
+        <v>361463</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>430260</v>
+        <v>431476</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3026794564470949</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.27756257216986</v>
+        <v>0.2790948918460015</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3322152386674484</v>
+        <v>0.3331538624425417</v>
       </c>
     </row>
     <row r="22">
@@ -8264,19 +8264,19 @@
         <v>148151</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>127062</v>
+        <v>127723</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>173410</v>
+        <v>171030</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2293194182620071</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1966750920262006</v>
+        <v>0.1976992736478334</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2684163552668332</v>
+        <v>0.264732790023055</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>185</v>
@@ -8285,19 +8285,19 @@
         <v>197203</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>174184</v>
+        <v>173082</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>221768</v>
+        <v>221733</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3038207425011031</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2683559173109932</v>
+        <v>0.2666581163006662</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3416665104046722</v>
+        <v>0.3416124612001702</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>320</v>
@@ -8306,19 +8306,19 @@
         <v>345354</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>314004</v>
+        <v>310881</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>377623</v>
+        <v>379616</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2666571907808992</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2424506570604925</v>
+        <v>0.2400390422795494</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2915728381539999</v>
+        <v>0.2931111282371577</v>
       </c>
     </row>
     <row r="23">
@@ -8410,19 +8410,19 @@
         <v>120436</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>101712</v>
+        <v>101052</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>141253</v>
+        <v>138803</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2520014487180016</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2128226216311837</v>
+        <v>0.2114414644739065</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.295558664787186</v>
+        <v>0.2904325304920137</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>83</v>
@@ -8431,19 +8431,19 @@
         <v>96140</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>78230</v>
+        <v>78255</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>114584</v>
+        <v>117932</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1934984302063481</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1574521409867997</v>
+        <v>0.157502568765652</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2306213107473288</v>
+        <v>0.2373596800505751</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>189</v>
@@ -8452,19 +8452,19 @@
         <v>216576</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>190017</v>
+        <v>190395</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>245194</v>
+        <v>243795</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2221818443101302</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1949358734800397</v>
+        <v>0.1953237726097894</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2515413240332089</v>
+        <v>0.2501056175990649</v>
       </c>
     </row>
     <row r="25">
@@ -8481,19 +8481,19 @@
         <v>109902</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>92384</v>
+        <v>90806</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>131055</v>
+        <v>129675</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2299592226196422</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1933052106707044</v>
+        <v>0.1900041600836784</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2742216907246791</v>
+        <v>0.2713331417358437</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>80</v>
@@ -8502,19 +8502,19 @@
         <v>93294</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>76316</v>
+        <v>75162</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>113064</v>
+        <v>112225</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.187771253697962</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1536005078844587</v>
+        <v>0.1512781146712704</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2275624872304996</v>
+        <v>0.2258737327855664</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>178</v>
@@ -8523,19 +8523,19 @@
         <v>203196</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>177991</v>
+        <v>177900</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>231950</v>
+        <v>230330</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2084555707394322</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.182598832468417</v>
+        <v>0.182505624031275</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2379543077068782</v>
+        <v>0.2362928154618991</v>
       </c>
     </row>
     <row r="26">
@@ -8552,19 +8552,19 @@
         <v>145108</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>124055</v>
+        <v>123859</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>165530</v>
+        <v>167704</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3036242677478345</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2595739197351456</v>
+        <v>0.2591633459154887</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3463565720860895</v>
+        <v>0.3509049711326168</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>123</v>
@@ -8573,19 +8573,19 @@
         <v>140165</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>120503</v>
+        <v>119653</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>162367</v>
+        <v>161220</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2821079590821186</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2425339549248282</v>
+        <v>0.2408228154978365</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.326793841608682</v>
+        <v>0.324484419172645</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>251</v>
@@ -8594,19 +8594,19 @@
         <v>285273</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>253968</v>
+        <v>255998</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>315441</v>
+        <v>316006</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2926571787146166</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2605421714355482</v>
+        <v>0.262625190097339</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.323607041469601</v>
+        <v>0.324185787066027</v>
       </c>
     </row>
     <row r="27">
@@ -8623,19 +8623,19 @@
         <v>102473</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>85385</v>
+        <v>86071</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>123844</v>
+        <v>122694</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2144150609145217</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1786613077101549</v>
+        <v>0.1800959211552438</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2591318606332761</v>
+        <v>0.2567259358909007</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>147</v>
@@ -8644,19 +8644,19 @@
         <v>167250</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>144846</v>
+        <v>147276</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>190105</v>
+        <v>189732</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3366223570135713</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2915291174118021</v>
+        <v>0.2964209594760716</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3826215846594509</v>
+        <v>0.3818710039665809</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>239</v>
@@ -8665,19 +8665,19 @@
         <v>269723</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>239417</v>
+        <v>240236</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>299788</v>
+        <v>299409</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2767054062358211</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2456146931079894</v>
+        <v>0.2464551626248146</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3075483102991106</v>
+        <v>0.3071596008420697</v>
       </c>
     </row>
     <row r="28">
@@ -8769,19 +8769,19 @@
         <v>92923</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>77446</v>
+        <v>76481</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>110098</v>
+        <v>109097</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2779377078513109</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2316439223306939</v>
+        <v>0.2287602688540336</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3293103131515203</v>
+        <v>0.3263151162384962</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>78</v>
@@ -8790,19 +8790,19 @@
         <v>82820</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>67837</v>
+        <v>66389</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>100754</v>
+        <v>100504</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2192389081847107</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.179575638562571</v>
+        <v>0.1757420161159657</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.266711629792057</v>
+        <v>0.266052015977831</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>168</v>
@@ -8811,19 +8811,19 @@
         <v>175743</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>152794</v>
+        <v>154175</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>199083</v>
+        <v>198460</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.246798225788484</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2145705183296772</v>
+        <v>0.2165100268202842</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2795749285434233</v>
+        <v>0.2787004129564457</v>
       </c>
     </row>
     <row r="30">
@@ -8840,19 +8840,19 @@
         <v>71793</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>58171</v>
+        <v>58218</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>86891</v>
+        <v>89279</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2147372874661719</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1739915500496644</v>
+        <v>0.1741335225151188</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.259897009306605</v>
+        <v>0.2670374995921504</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>66</v>
@@ -8861,19 +8861,19 @@
         <v>73104</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>57464</v>
+        <v>58469</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>89167</v>
+        <v>89785</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1935187549090226</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1521168122691358</v>
+        <v>0.1547786148773073</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.236040125476343</v>
+        <v>0.2376748607724746</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>136</v>
@@ -8882,19 +8882,19 @@
         <v>144897</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>122095</v>
+        <v>125218</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>167209</v>
+        <v>166811</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2034809395047873</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1714599565400047</v>
+        <v>0.1758456296420157</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2348136227605793</v>
+        <v>0.2342543898194394</v>
       </c>
     </row>
     <row r="31">
@@ -8911,19 +8911,19 @@
         <v>108695</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>91586</v>
+        <v>92374</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>125974</v>
+        <v>125490</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3251143212503495</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2739400397923782</v>
+        <v>0.2762955547936268</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3767964063222352</v>
+        <v>0.3753465033863908</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>85</v>
@@ -8932,19 +8932,19 @@
         <v>89807</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>74908</v>
+        <v>75142</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>106335</v>
+        <v>107585</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2377334173514255</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1982933379232127</v>
+        <v>0.1989127636306186</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.281486579000421</v>
+        <v>0.2847954014143236</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>191</v>
@@ -8953,19 +8953,19 @@
         <v>198502</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>175178</v>
+        <v>174128</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>225487</v>
+        <v>223723</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2787590958445666</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2460045327854061</v>
+        <v>0.2445303356149283</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3166537797353797</v>
+        <v>0.3141764159189447</v>
       </c>
     </row>
     <row r="32">
@@ -8982,19 +8982,19 @@
         <v>60918</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>46784</v>
+        <v>48341</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>74651</v>
+        <v>76199</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1822106834321677</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1399339114724868</v>
+        <v>0.1445899739066323</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2232855792136339</v>
+        <v>0.2279166937502149</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>125</v>
@@ -9003,19 +9003,19 @@
         <v>132031</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>113767</v>
+        <v>112415</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>150967</v>
+        <v>151572</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3495089195548412</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3011605284239011</v>
+        <v>0.2975825827285706</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3996347347039911</v>
+        <v>0.4012364674458701</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>184</v>
@@ -9024,19 +9024,19 @@
         <v>192950</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>169177</v>
+        <v>169208</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>216329</v>
+        <v>216008</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2709617388621621</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2375780848487284</v>
+        <v>0.2376215410932688</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3037931025898258</v>
+        <v>0.3033432054689181</v>
       </c>
     </row>
     <row r="33">
@@ -9128,19 +9128,19 @@
         <v>66176</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>53333</v>
+        <v>53472</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>79807</v>
+        <v>80706</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.257494456859795</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.207522540045715</v>
+        <v>0.2080647638210146</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3105372542353301</v>
+        <v>0.314033454587945</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>76</v>
@@ -9149,19 +9149,19 @@
         <v>102222</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>80800</v>
+        <v>82838</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>123471</v>
+        <v>125197</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2554470851119651</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2019158143284841</v>
+        <v>0.2070075920832883</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3085480386898162</v>
+        <v>0.3128595214577005</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>154</v>
@@ -9170,19 +9170,19 @@
         <v>168398</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>146693</v>
+        <v>145923</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>194738</v>
+        <v>196392</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2562477498535489</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2232195301604533</v>
+        <v>0.2220481271986432</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2963298152546202</v>
+        <v>0.2988459751159078</v>
       </c>
     </row>
     <row r="35">
@@ -9199,19 +9199,19 @@
         <v>51221</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>40043</v>
+        <v>39142</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>62901</v>
+        <v>63478</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1993034275631665</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1558094017945769</v>
+        <v>0.1523065491555077</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2447513242882445</v>
+        <v>0.24699826643145</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>42</v>
@@ -9220,19 +9220,19 @@
         <v>55950</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>42663</v>
+        <v>42289</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>72317</v>
+        <v>75322</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1398160234764361</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1066113354320085</v>
+        <v>0.1056774632420854</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1807173558379875</v>
+        <v>0.1882251879241756</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>102</v>
@@ -9241,19 +9241,19 @@
         <v>107171</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>87852</v>
+        <v>89123</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>128385</v>
+        <v>127841</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1630797356337803</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1336833655626504</v>
+        <v>0.135616326610204</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.195361990646691</v>
+        <v>0.1945333865241066</v>
       </c>
     </row>
     <row r="36">
@@ -9270,19 +9270,19 @@
         <v>66873</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>53660</v>
+        <v>54904</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>79338</v>
+        <v>80856</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2602072916267548</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2087970211896233</v>
+        <v>0.2136354525610347</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3087097860458079</v>
+        <v>0.314615545084282</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>64</v>
@@ -9291,19 +9291,19 @@
         <v>86588</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>69546</v>
+        <v>67627</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>106946</v>
+        <v>105807</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2163781874706143</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1737907759793739</v>
+        <v>0.1689959051646935</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2672525339539764</v>
+        <v>0.2644060156607447</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>143</v>
@@ -9312,19 +9312,19 @@
         <v>153461</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>130532</v>
+        <v>131279</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>175206</v>
+        <v>176780</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2335184153702236</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1986285514644117</v>
+        <v>0.199764903191166</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2666079951901619</v>
+        <v>0.2690024315120287</v>
       </c>
     </row>
     <row r="37">
@@ -9341,19 +9341,19 @@
         <v>72729</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>60085</v>
+        <v>60570</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>86518</v>
+        <v>86511</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2829948239502837</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2337960152945138</v>
+        <v>0.2356829134382054</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3366498500375194</v>
+        <v>0.3366197502391653</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>119</v>
@@ -9362,19 +9362,19 @@
         <v>155409</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>134563</v>
+        <v>132626</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>178325</v>
+        <v>178728</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3883587039409845</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3362647885476526</v>
+        <v>0.3314259034598597</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4456247308199516</v>
+        <v>0.446632030390236</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>204</v>
@@ -9383,19 +9383,19 @@
         <v>228138</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>202966</v>
+        <v>204942</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>254398</v>
+        <v>257028</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3471540991424472</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3088495180990449</v>
+        <v>0.3118569734958839</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3871137680431129</v>
+        <v>0.3911150122730823</v>
       </c>
     </row>
     <row r="38">
@@ -9487,19 +9487,19 @@
         <v>959114</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>903990</v>
+        <v>903280</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1015828</v>
+        <v>1013407</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2825618071916485</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2663220278922696</v>
+        <v>0.2661126593390079</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2992703954062799</v>
+        <v>0.2985570931914373</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>816</v>
@@ -9508,19 +9508,19 @@
         <v>873279</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>820403</v>
+        <v>824395</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>928473</v>
+        <v>930356</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2463728315960663</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2314553388742235</v>
+        <v>0.2325814329718964</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2619444687491532</v>
+        <v>0.2624755586222616</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1721</v>
@@ -9529,19 +9529,19 @@
         <v>1832393</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1754111</v>
+        <v>1758210</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1910392</v>
+        <v>1903782</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2640756659497336</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.25279406042401</v>
+        <v>0.2533848590357881</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2753166353174664</v>
+        <v>0.2743639146618007</v>
       </c>
     </row>
     <row r="40">
@@ -9558,19 +9558,19 @@
         <v>800806</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>748611</v>
+        <v>752273</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>851167</v>
+        <v>853654</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2359231572286177</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2205461341663623</v>
+        <v>0.2216251726168582</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2507600769025993</v>
+        <v>0.2514925711581258</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>693</v>
@@ -9579,19 +9579,19 @@
         <v>727406</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>684007</v>
+        <v>679485</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>784208</v>
+        <v>782634</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.205218726811631</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1929747268569997</v>
+        <v>0.1916989681715898</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2212439325978483</v>
+        <v>0.2207998006441553</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1457</v>
@@ -9600,19 +9600,19 @@
         <v>1528212</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1460885</v>
+        <v>1453633</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1599995</v>
+        <v>1596567</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2202386448018483</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2105357301795368</v>
+        <v>0.2094906501524528</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2305836152956674</v>
+        <v>0.2300896036056449</v>
       </c>
     </row>
     <row r="41">
@@ -9629,19 +9629,19 @@
         <v>994207</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>937856</v>
+        <v>938459</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1046621</v>
+        <v>1054637</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2929006414211555</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2762991116876276</v>
+        <v>0.2764769345665078</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3083420023913802</v>
+        <v>0.3107035361488003</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>950</v>
@@ -9650,19 +9650,19 @@
         <v>994841</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>937996</v>
+        <v>930932</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1054363</v>
+        <v>1045592</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2806685584879475</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2646312265148519</v>
+        <v>0.262638069079705</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.297460957137173</v>
+        <v>0.2949863635166793</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1899</v>
@@ -9671,19 +9671,19 @@
         <v>1989049</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1912978</v>
+        <v>1919728</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2063381</v>
+        <v>2058608</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2866522188265767</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2756892675639193</v>
+        <v>0.27666208268411</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2973646102041739</v>
+        <v>0.2966767744381676</v>
       </c>
     </row>
     <row r="42">
@@ -9700,19 +9700,19 @@
         <v>640223</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>596646</v>
+        <v>591792</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>688380</v>
+        <v>687534</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1886143941585783</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.175776171615337</v>
+        <v>0.1743461693111342</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2028016049469306</v>
+        <v>0.2025525008157279</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>879</v>
@@ -9721,19 +9721,19 @@
         <v>949015</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>894244</v>
+        <v>893689</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>999648</v>
+        <v>1002626</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2677398831043551</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2522875846355306</v>
+        <v>0.2521310107500963</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.282024611949249</v>
+        <v>0.2828648553389156</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1492</v>
@@ -9742,19 +9742,19 @@
         <v>1589239</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1518512</v>
+        <v>1516159</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1664097</v>
+        <v>1659080</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2290334704218415</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2188406940289223</v>
+        <v>0.2185015646067007</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2398217258925491</v>
+        <v>0.2390986908604577</v>
       </c>
     </row>
     <row r="43">
@@ -10089,19 +10089,19 @@
         <v>176850</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>146022</v>
+        <v>144353</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>211588</v>
+        <v>209784</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4336749214676899</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3580782656601885</v>
+        <v>0.353986857132674</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5188611898600919</v>
+        <v>0.5144376365919444</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -10110,19 +10110,19 @@
         <v>143331</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>118191</v>
+        <v>120222</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171309</v>
+        <v>170120</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3970223420386675</v>
+        <v>0.3970223420386674</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3273849942165784</v>
+        <v>0.3330100482384246</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4745207181927688</v>
+        <v>0.4712274647733055</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>160</v>
@@ -10131,19 +10131,19 @@
         <v>320181</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>280823</v>
+        <v>278500</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>362771</v>
+        <v>359374</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.41646369017873</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3652695472985761</v>
+        <v>0.3622480402129574</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4718604039768871</v>
+        <v>0.4674427551748718</v>
       </c>
     </row>
     <row r="5">
@@ -10160,19 +10160,19 @@
         <v>111437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86354</v>
+        <v>84273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143116</v>
+        <v>140581</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2732694668554589</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2117596728453756</v>
+        <v>0.2066558168101036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.350951513050171</v>
+        <v>0.3447368584784407</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -10181,19 +10181,19 @@
         <v>83174</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64210</v>
+        <v>63534</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>105697</v>
+        <v>109134</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2303890421445333</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1778590094476279</v>
+        <v>0.1759867955293989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2927766661712774</v>
+        <v>0.3022989340612274</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>96</v>
@@ -10202,19 +10202,19 @@
         <v>194612</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>158331</v>
+        <v>161784</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>234542</v>
+        <v>232043</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2531337787547687</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2059428627346261</v>
+        <v>0.2104347972340785</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.305072105837356</v>
+        <v>0.3018215048517144</v>
       </c>
     </row>
     <row r="6">
@@ -10231,19 +10231,19 @@
         <v>83352</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59901</v>
+        <v>60882</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113237</v>
+        <v>113270</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2043981973712722</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1468908044356323</v>
+        <v>0.1492973483913726</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2776823801982267</v>
+        <v>0.2777634156405672</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -10252,19 +10252,19 @@
         <v>60574</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42945</v>
+        <v>43105</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>84586</v>
+        <v>81097</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1677868122523722</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1189576287558828</v>
+        <v>0.1193981728694013</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2342995334306294</v>
+        <v>0.2246350225069627</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -10273,19 +10273,19 @@
         <v>143926</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>112682</v>
+        <v>114932</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>176980</v>
+        <v>176838</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1872063100087249</v>
+        <v>0.187206310008725</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1465673959670424</v>
+        <v>0.1494931593105145</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.23020049294418</v>
+        <v>0.2300154174323216</v>
       </c>
     </row>
     <row r="7">
@@ -10302,19 +10302,19 @@
         <v>36154</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21984</v>
+        <v>22038</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56722</v>
+        <v>58714</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08865741430557908</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05391011558224504</v>
+        <v>0.05404311514881072</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1390950034936745</v>
+        <v>0.1439803761534323</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -10323,19 +10323,19 @@
         <v>73937</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53638</v>
+        <v>54509</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96032</v>
+        <v>97937</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.204801803564427</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1485754517205007</v>
+        <v>0.1509892526755506</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2660047602218131</v>
+        <v>0.2712828447799968</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -10344,19 +10344,19 @@
         <v>110091</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84375</v>
+        <v>82329</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139837</v>
+        <v>138901</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1431962210577763</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1097479278732187</v>
+        <v>0.107085910410494</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.181888380644582</v>
+        <v>0.1806698764655458</v>
       </c>
     </row>
     <row r="8">
@@ -10448,19 +10448,19 @@
         <v>187852</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>160745</v>
+        <v>161495</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>216109</v>
+        <v>217644</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3939105434252998</v>
+        <v>0.3939105434252997</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3370699609307036</v>
+        <v>0.3386424253299648</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4531627056496657</v>
+        <v>0.4563810266805047</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>145</v>
@@ -10469,19 +10469,19 @@
         <v>161805</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>140725</v>
+        <v>141396</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>181782</v>
+        <v>186699</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3232841773185974</v>
+        <v>0.3232841773185973</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.281166626696946</v>
+        <v>0.2825077597233726</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3631972678349967</v>
+        <v>0.3730215536914788</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>260</v>
@@ -10490,19 +10490,19 @@
         <v>349657</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>317039</v>
+        <v>316404</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>390337</v>
+        <v>390412</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3577442013985792</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3243719720042036</v>
+        <v>0.3237215786873532</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3993651789735513</v>
+        <v>0.3994412910710874</v>
       </c>
     </row>
     <row r="10">
@@ -10519,19 +10519,19 @@
         <v>125862</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>101884</v>
+        <v>102571</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151340</v>
+        <v>151273</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2639220338549687</v>
+        <v>0.2639220338549688</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2136428405889358</v>
+        <v>0.2150821368353102</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.317347099541141</v>
+        <v>0.3172071813598394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>126</v>
@@ -10540,19 +10540,19 @@
         <v>136313</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>115909</v>
+        <v>117310</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156263</v>
+        <v>159620</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2723506572721359</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2315837133047781</v>
+        <v>0.2343842201402466</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3122122801691187</v>
+        <v>0.3189194001765336</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>209</v>
@@ -10561,19 +10561,19 @@
         <v>262174</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>229405</v>
+        <v>231320</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>293500</v>
+        <v>295810</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2682381624358893</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2347112697097674</v>
+        <v>0.2366704486619139</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3002886712160192</v>
+        <v>0.3026512526503251</v>
       </c>
     </row>
     <row r="11">
@@ -10590,19 +10590,19 @@
         <v>102079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80513</v>
+        <v>80149</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>127602</v>
+        <v>128231</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2140511857306172</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.168829708918096</v>
+        <v>0.1680658832088306</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2675707191636002</v>
+        <v>0.268889995990248</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -10611,19 +10611,19 @@
         <v>101050</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83646</v>
+        <v>83399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>121355</v>
+        <v>122653</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2018957517085375</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1671236749078381</v>
+        <v>0.1666295538402</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2424664107974333</v>
+        <v>0.245059767153015</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>158</v>
@@ -10632,19 +10632,19 @@
         <v>203129</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>174238</v>
+        <v>174074</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>236098</v>
+        <v>234833</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2078266323724338</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1782675290932448</v>
+        <v>0.1781003664518883</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.241558241054901</v>
+        <v>0.2402645141628989</v>
       </c>
     </row>
     <row r="12">
@@ -10661,19 +10661,19 @@
         <v>61097</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>44568</v>
+        <v>44532</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>81578</v>
+        <v>83296</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1281162369891142</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09345476642385263</v>
+        <v>0.09337944166088594</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1710626059007038</v>
+        <v>0.1746643270703779</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>95</v>
@@ -10682,19 +10682,19 @@
         <v>101337</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>83738</v>
+        <v>83559</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>122661</v>
+        <v>122298</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2024694137007291</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1673065747343175</v>
+        <v>0.1669494830718592</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2450754599376161</v>
+        <v>0.244350457026242</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>134</v>
@@ -10703,19 +10703,19 @@
         <v>162434</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>136627</v>
+        <v>138870</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>191539</v>
+        <v>194233</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1661910037930978</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1397874020952821</v>
+        <v>0.1420817860913829</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1959687351704373</v>
+        <v>0.1987249613585999</v>
       </c>
     </row>
     <row r="13">
@@ -10807,19 +10807,19 @@
         <v>213145</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>186543</v>
+        <v>188616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>240305</v>
+        <v>240482</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3438665892638055</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3009496012675931</v>
+        <v>0.3042942079660014</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3876836909040601</v>
+        <v>0.3879686494137515</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>238</v>
@@ -10828,19 +10828,19 @@
         <v>181163</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>161383</v>
+        <v>163019</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>200234</v>
+        <v>199680</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2915593463171212</v>
+        <v>0.291559346317121</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2597260090119835</v>
+        <v>0.2623591886985121</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3222528011336037</v>
+        <v>0.3213613505190748</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>421</v>
@@ -10849,19 +10849,19 @@
         <v>394308</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>361184</v>
+        <v>360762</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>425040</v>
+        <v>422701</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3176811635617613</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2909942249401553</v>
+        <v>0.2906540653125023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3424410985364825</v>
+        <v>0.3405561702813765</v>
       </c>
     </row>
     <row r="15">
@@ -10878,19 +10878,19 @@
         <v>182578</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>157953</v>
+        <v>158132</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>207008</v>
+        <v>207322</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2945516855774654</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2548247464767165</v>
+        <v>0.255113377981351</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3339651549417803</v>
+        <v>0.3344712319284441</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>215</v>
@@ -10899,19 +10899,19 @@
         <v>157835</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>141600</v>
+        <v>140769</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>176925</v>
+        <v>177642</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2540156803764841</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2278879107967241</v>
+        <v>0.2265499119390139</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2847396894589319</v>
+        <v>0.2858927891245986</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>371</v>
@@ -10920,19 +10920,19 @@
         <v>340412</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>311433</v>
+        <v>310225</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>371104</v>
+        <v>372191</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2742590359815024</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2509111579473545</v>
+        <v>0.2499378031140753</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2989863284748931</v>
+        <v>0.2998620446209561</v>
       </c>
     </row>
     <row r="16">
@@ -10949,19 +10949,19 @@
         <v>117398</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97120</v>
+        <v>97906</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>138699</v>
+        <v>139279</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1893979411694336</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1566837798451794</v>
+        <v>0.1579513849498294</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2237619798489886</v>
+        <v>0.2246985327554456</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>205</v>
@@ -10970,19 +10970,19 @@
         <v>151240</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132769</v>
+        <v>134042</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>169765</v>
+        <v>170357</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2434024674626861</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2136755387668498</v>
+        <v>0.2157246087512972</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2732158868674619</v>
+        <v>0.2741691022351874</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>312</v>
@@ -10991,19 +10991,19 @@
         <v>268638</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>242561</v>
+        <v>242965</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>296268</v>
+        <v>296594</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2164330405392751</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.195423144386119</v>
+        <v>0.1957485947080556</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2386931944674505</v>
+        <v>0.238956479881292</v>
       </c>
     </row>
     <row r="17">
@@ -11020,19 +11020,19 @@
         <v>106728</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87641</v>
+        <v>88269</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>129943</v>
+        <v>126337</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1721837839892956</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.141390319961458</v>
+        <v>0.1424042538886524</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2096366418355039</v>
+        <v>0.2038184867181638</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>187</v>
@@ -11041,19 +11041,19 @@
         <v>131121</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>113475</v>
+        <v>114925</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>148210</v>
+        <v>147607</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2110225058437088</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1826246693404973</v>
+        <v>0.1849581051869057</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2385264906860828</v>
+        <v>0.237554736432852</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>286</v>
@@ -11062,19 +11062,19 @@
         <v>237848</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>210731</v>
+        <v>213449</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>263264</v>
+        <v>266577</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1916267599174612</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1697793660168778</v>
+        <v>0.1719686218935246</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2121035182608189</v>
+        <v>0.2147723043063688</v>
       </c>
     </row>
     <row r="18">
@@ -11166,19 +11166,19 @@
         <v>216472</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>192521</v>
+        <v>193018</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>245351</v>
+        <v>244629</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3098752595068892</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2755893476968767</v>
+        <v>0.2763014026900956</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3512140951986341</v>
+        <v>0.3501801814491124</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>274</v>
@@ -11187,19 +11187,19 @@
         <v>178660</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>161425</v>
+        <v>159900</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>197716</v>
+        <v>198123</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2436732697829614</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2201662079850026</v>
+        <v>0.2180868866811587</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2696626138049067</v>
+        <v>0.2702183052913886</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>474</v>
@@ -11208,19 +11208,19 @@
         <v>395133</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>363024</v>
+        <v>359090</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>428781</v>
+        <v>424019</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2759739591854423</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2535483414042071</v>
+        <v>0.2508005448148906</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2994753891664656</v>
+        <v>0.2961492198871105</v>
       </c>
     </row>
     <row r="20">
@@ -11237,19 +11237,19 @@
         <v>178755</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153135</v>
+        <v>154825</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>203127</v>
+        <v>201541</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2558840758237073</v>
+        <v>0.2558840758237074</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2192096649132456</v>
+        <v>0.2216285233158844</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2907722433023339</v>
+        <v>0.2885017341247147</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>271</v>
@@ -11258,19 +11258,19 @@
         <v>173159</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>155894</v>
+        <v>155001</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>192678</v>
+        <v>190214</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2361696979498458</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2126220695044745</v>
+        <v>0.2114047565656917</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.262791718259835</v>
+        <v>0.2594311604685111</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>442</v>
@@ -11279,19 +11279,19 @@
         <v>351914</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>321781</v>
+        <v>321937</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>381101</v>
+        <v>381164</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2457885628679887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2247428978753425</v>
+        <v>0.224851826831881</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2661739464266429</v>
+        <v>0.2662180492262781</v>
       </c>
     </row>
     <row r="21">
@@ -11308,19 +11308,19 @@
         <v>156513</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>133118</v>
+        <v>135130</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>178454</v>
+        <v>178383</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2240444492868252</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1905554903080518</v>
+        <v>0.1934360863512516</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2554533491646626</v>
+        <v>0.2553516452496614</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>282</v>
@@ -11329,19 +11329,19 @@
         <v>187558</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>169084</v>
+        <v>168996</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>206342</v>
+        <v>207372</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2558086854987033</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2306123724437296</v>
+        <v>0.2304921074456154</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2814287545950291</v>
+        <v>0.2828335836501141</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>434</v>
@@ -11350,19 +11350,19 @@
         <v>344071</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>315922</v>
+        <v>314471</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>375107</v>
+        <v>371338</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2403105602570677</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2206504015933456</v>
+        <v>0.219636906488293</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.261987092283092</v>
+        <v>0.2593550447646017</v>
       </c>
     </row>
     <row r="22">
@@ -11379,19 +11379,19 @@
         <v>146839</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>124645</v>
+        <v>126992</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>169253</v>
+        <v>169649</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2101962153825783</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1784267461150924</v>
+        <v>0.1817865196664536</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2422814444329395</v>
+        <v>0.2428488499665969</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>308</v>
@@ -11400,19 +11400,19 @@
         <v>193819</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>175438</v>
+        <v>175995</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>212806</v>
+        <v>214158</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2643483467684895</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2392789768997303</v>
+        <v>0.2400380315405204</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2902439300665935</v>
+        <v>0.292088673993205</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>448</v>
@@ -11421,19 +11421,19 @@
         <v>340658</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>314196</v>
+        <v>314947</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>371717</v>
+        <v>372322</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2379269176895014</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2194451409679309</v>
+        <v>0.2199693790420892</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2596194656087262</v>
+        <v>0.2600422463756632</v>
       </c>
     </row>
     <row r="23">
@@ -11525,19 +11525,19 @@
         <v>161315</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>141663</v>
+        <v>139931</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>183495</v>
+        <v>183557</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2678367512665622</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2352080065518682</v>
+        <v>0.2323317938480738</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3046624613116642</v>
+        <v>0.3047656225858851</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>186</v>
@@ -11546,19 +11546,19 @@
         <v>113398</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>98032</v>
+        <v>99103</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>128550</v>
+        <v>127009</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1869752430735535</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1616396347736009</v>
+        <v>0.1634054231090338</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2119588566963805</v>
+        <v>0.2094177401964149</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>355</v>
@@ -11567,19 +11567,19 @@
         <v>274713</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>247215</v>
+        <v>248266</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>303331</v>
+        <v>300441</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2272656946044979</v>
+        <v>0.227265694604498</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2045168074620131</v>
+        <v>0.2053862857491261</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2509409214558879</v>
+        <v>0.2485502401939799</v>
       </c>
     </row>
     <row r="25">
@@ -11596,19 +11596,19 @@
         <v>146760</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>126445</v>
+        <v>129154</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>166329</v>
+        <v>169420</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2436703030628311</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2099399920309675</v>
+        <v>0.2144376352668489</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2761607851393517</v>
+        <v>0.2812929592415825</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>232</v>
@@ -11617,19 +11617,19 @@
         <v>142582</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>126904</v>
+        <v>126443</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>158058</v>
+        <v>157486</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2350952281915588</v>
+        <v>0.2350952281915587</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2092449323765045</v>
+        <v>0.2084842846203717</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2606130080241957</v>
+        <v>0.2596700714338713</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>389</v>
@@ -11638,19 +11638,19 @@
         <v>289342</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>265581</v>
+        <v>265040</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>318127</v>
+        <v>319952</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2393678870399512</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2197112210710473</v>
+        <v>0.2192629162931838</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2631811298059566</v>
+        <v>0.2646908176068041</v>
       </c>
     </row>
     <row r="26">
@@ -11667,19 +11667,19 @@
         <v>150917</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>129217</v>
+        <v>130461</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>170796</v>
+        <v>173009</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.250572529098216</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2145426822427159</v>
+        <v>0.2166082550152343</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2835782973107224</v>
+        <v>0.2872518565510916</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>260</v>
@@ -11688,19 +11688,19 @@
         <v>157860</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>142355</v>
+        <v>142102</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>177236</v>
+        <v>175131</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2602865751841966</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2347220860813365</v>
+        <v>0.2343038476312412</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2922350297383786</v>
+        <v>0.288763956561792</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>426</v>
@@ -11709,19 +11709,19 @@
         <v>308777</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>283584</v>
+        <v>282928</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>338619</v>
+        <v>334538</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2554464069540621</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2346041222903049</v>
+        <v>0.2340617773945985</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2801340030555156</v>
+        <v>0.2767580319576861</v>
       </c>
     </row>
     <row r="27">
@@ -11738,19 +11738,19 @@
         <v>143297</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>126118</v>
+        <v>124037</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>165108</v>
+        <v>164499</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2379204165723906</v>
+        <v>0.2379204165723907</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2093969769485776</v>
+        <v>0.2059425555603687</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2741341584053536</v>
+        <v>0.2731217588331743</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>320</v>
@@ -11759,19 +11759,19 @@
         <v>192646</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>175020</v>
+        <v>176177</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>209783</v>
+        <v>210240</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3176429535506911</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2885816088395036</v>
+        <v>0.2904890102760883</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3459002574581403</v>
+        <v>0.3466535928509435</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>486</v>
@@ -11780,19 +11780,19 @@
         <v>335943</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>309479</v>
+        <v>307758</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>360505</v>
+        <v>360294</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2779200114014888</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2560269665108488</v>
+        <v>0.254602806670591</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.298240183381012</v>
+        <v>0.2980650085997628</v>
       </c>
     </row>
     <row r="28">
@@ -11884,19 +11884,19 @@
         <v>107345</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>92827</v>
+        <v>94583</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>124042</v>
+        <v>126202</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2669653343236578</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2308596058190304</v>
+        <v>0.2352269836800912</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3084908945081631</v>
+        <v>0.3138637305542577</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>207</v>
@@ -11905,19 +11905,19 @@
         <v>109834</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>97456</v>
+        <v>96820</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>123462</v>
+        <v>122894</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2511922632056986</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2228845238924523</v>
+        <v>0.2214288227488578</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2823599911256875</v>
+        <v>0.2810621610526989</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>355</v>
@@ -11926,19 +11926,19 @@
         <v>217178</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>198031</v>
+        <v>197536</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>237819</v>
+        <v>238689</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2587484557208977</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2359360280241118</v>
+        <v>0.2353462650727164</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2833395287387834</v>
+        <v>0.2843757683786062</v>
       </c>
     </row>
     <row r="30">
@@ -11955,19 +11955,19 @@
         <v>99385</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>85137</v>
+        <v>86689</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>115176</v>
+        <v>115951</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.247169041308998</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2117357576528628</v>
+        <v>0.2155951945177904</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2864420591841776</v>
+        <v>0.2883698462181742</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>162</v>
@@ -11976,19 +11976,19 @@
         <v>82864</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>72114</v>
+        <v>72496</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>94932</v>
+        <v>95532</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1895111032011329</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1649263260229276</v>
+        <v>0.1657997811447928</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2171115624293207</v>
+        <v>0.2184843752228867</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>298</v>
@@ -11997,19 +11997,19 @@
         <v>182248</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>163107</v>
+        <v>161722</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>201320</v>
+        <v>200404</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2171325142195875</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1943276160994473</v>
+        <v>0.1926770613205664</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2398547994182186</v>
+        <v>0.2387632873907349</v>
       </c>
     </row>
     <row r="31">
@@ -12026,19 +12026,19 @@
         <v>96563</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>82078</v>
+        <v>81749</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>111030</v>
+        <v>111323</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2401509567399842</v>
+        <v>0.2401509567399841</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2041264695927356</v>
+        <v>0.2033101155920403</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2761299424751744</v>
+        <v>0.2768594076432698</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>195</v>
@@ -12047,19 +12047,19 @@
         <v>104073</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>89780</v>
+        <v>92096</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>117598</v>
+        <v>117066</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.238016807607646</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2053292011392399</v>
+        <v>0.210625596351054</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2689494446058103</v>
+        <v>0.267733508607465</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>331</v>
@@ -12068,19 +12068,19 @@
         <v>200636</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>182030</v>
+        <v>182235</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>220219</v>
+        <v>219698</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2390391856581532</v>
+        <v>0.2390391856581533</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2168726782623455</v>
+        <v>0.2171160268906201</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2623711054428848</v>
+        <v>0.2617501311522937</v>
       </c>
     </row>
     <row r="32">
@@ -12097,19 +12097,19 @@
         <v>98800</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>85392</v>
+        <v>85650</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>112808</v>
+        <v>113562</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2457146676273602</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2123688692516088</v>
+        <v>0.213011044948496</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2805538155199149</v>
+        <v>0.2824287210857304</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>260</v>
@@ -12118,19 +12118,19 @@
         <v>140480</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>125556</v>
+        <v>127561</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>154921</v>
+        <v>155704</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3212798259855225</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2871487524027024</v>
+        <v>0.2917355339919462</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3543085409623661</v>
+        <v>0.3560988048993194</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>404</v>
@@ -12139,19 +12139,19 @@
         <v>239279</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>220326</v>
+        <v>219214</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>261422</v>
+        <v>260954</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2850798444013614</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2624989259642053</v>
+        <v>0.2611730528616851</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3114602101950127</v>
+        <v>0.3109029215091813</v>
       </c>
     </row>
     <row r="33">
@@ -12243,19 +12243,19 @@
         <v>80218</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>67690</v>
+        <v>65139</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>93448</v>
+        <v>93981</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.2607796135598519</v>
+        <v>0.260779613559852</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2200515561587632</v>
+        <v>0.2117584998660462</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3037876596461591</v>
+        <v>0.3055199836735845</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>188</v>
@@ -12264,19 +12264,19 @@
         <v>102713</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>89610</v>
+        <v>89294</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>115760</v>
+        <v>116958</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2253375403400915</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1965910322224199</v>
+        <v>0.1958971711674332</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2539607090234939</v>
+        <v>0.2565883258565658</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>303</v>
@@ -12285,19 +12285,19 @@
         <v>182931</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>166066</v>
+        <v>164508</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>203527</v>
+        <v>202238</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.239618244683047</v>
+        <v>0.2396182446830469</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.217526629275978</v>
+        <v>0.2154863597517124</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2665965134609898</v>
+        <v>0.2649074799756025</v>
       </c>
     </row>
     <row r="35">
@@ -12314,19 +12314,19 @@
         <v>56146</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>45850</v>
+        <v>46212</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>68274</v>
+        <v>68346</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.182523663269568</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1490522931681189</v>
+        <v>0.1502297688152132</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2219504947144249</v>
+        <v>0.2221861373460975</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>121</v>
@@ -12335,19 +12335,19 @@
         <v>62610</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>52436</v>
+        <v>53313</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>74295</v>
+        <v>73332</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1373580720047301</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1150378388117312</v>
+        <v>0.1169617837240424</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1629919027284706</v>
+        <v>0.1608804768039262</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>203</v>
@@ -12356,19 +12356,19 @@
         <v>118756</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>103382</v>
+        <v>103934</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>134521</v>
+        <v>135000</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1555566816438612</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1354180050890439</v>
+        <v>0.1361412097668046</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1762064803894591</v>
+        <v>0.1768335647139375</v>
       </c>
     </row>
     <row r="36">
@@ -12385,19 +12385,19 @@
         <v>73149</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>60784</v>
+        <v>61402</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>86933</v>
+        <v>86578</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2377983328174437</v>
+        <v>0.2377983328174436</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1976026616526818</v>
+        <v>0.199610768793788</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2826080532681008</v>
+        <v>0.2814543020990919</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>184</v>
@@ -12406,19 +12406,19 @@
         <v>92016</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>79892</v>
+        <v>79249</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>106384</v>
+        <v>104536</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2018693127298994</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1752720531472295</v>
+        <v>0.173860164048829</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2333913963855004</v>
+        <v>0.2293368315272251</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>293</v>
@@ -12427,19 +12427,19 @@
         <v>165165</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>148003</v>
+        <v>148699</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>183226</v>
+        <v>182980</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2163462229834525</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1938657603420177</v>
+        <v>0.1947782779916061</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2400041431957</v>
+        <v>0.239682207711001</v>
       </c>
     </row>
     <row r="37">
@@ -12456,19 +12456,19 @@
         <v>98096</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>85172</v>
+        <v>85311</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>113810</v>
+        <v>113131</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3188983903531364</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2768830400970789</v>
+        <v>0.2773374035018969</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3699829980421414</v>
+        <v>0.3677759167979622</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>371</v>
@@ -12477,19 +12477,19 @@
         <v>198480</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>183586</v>
+        <v>183354</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>214334</v>
+        <v>214465</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4354350749252789</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4027616839911844</v>
+        <v>0.4022519189587573</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4702163363255035</v>
+        <v>0.4705049137647819</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>519</v>
@@ -12498,19 +12498,19 @@
         <v>296576</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>275743</v>
+        <v>275122</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>318403</v>
+        <v>316543</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3884788506896393</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3611900777483091</v>
+        <v>0.3603765804073508</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4170698486913855</v>
+        <v>0.4146332095864499</v>
       </c>
     </row>
     <row r="38">
@@ -12602,19 +12602,19 @@
         <v>1143198</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1084309</v>
+        <v>1082017</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1212689</v>
+        <v>1207354</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3252245683758999</v>
+        <v>0.3252245683759</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3084714415586203</v>
+        <v>0.3078194235683971</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3449938230473515</v>
+        <v>0.3434761641691328</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1322</v>
@@ -12623,19 +12623,19 @@
         <v>990904</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>942195</v>
+        <v>942779</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1038793</v>
+        <v>1046205</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2666854696833382</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.253576194308521</v>
+        <v>0.2537333906919748</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2795741634859713</v>
+        <v>0.2815689636314234</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2328</v>
@@ -12644,19 +12644,19 @@
         <v>2134102</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2058008</v>
+        <v>2056036</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>2216699</v>
+        <v>2215733</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.2951433065962735</v>
+        <v>0.2951433065962734</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2846196238898808</v>
+        <v>0.2843469153412809</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3065664163640692</v>
+        <v>0.3064328116914991</v>
       </c>
     </row>
     <row r="40">
@@ -12673,19 +12673,19 @@
         <v>900923</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>840358</v>
+        <v>840900</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>953048</v>
+        <v>956238</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2563006104775423</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2390707859631402</v>
+        <v>0.2392249852435103</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2711293791415113</v>
+        <v>0.2720369408208964</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1176</v>
@@ -12694,19 +12694,19 @@
         <v>838536</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>795771</v>
+        <v>789794</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>885857</v>
+        <v>884685</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.225678113768163</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2141686112533448</v>
+        <v>0.2125602064211627</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2384138206338096</v>
+        <v>0.2380985435670809</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2008</v>
@@ -12715,19 +12715,19 @@
         <v>1739459</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1667602</v>
+        <v>1655688</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1821020</v>
+        <v>1814038</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2405647457233138</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2306271179521445</v>
+        <v>0.2289793341561497</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2518445755128427</v>
+        <v>0.2508790010814772</v>
       </c>
     </row>
     <row r="41">
@@ -12744,19 +12744,19 @@
         <v>779971</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>725442</v>
+        <v>726319</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>836013</v>
+        <v>836197</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2218913996737528</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2063785722896909</v>
+        <v>0.2066280690625307</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2378344687498413</v>
+        <v>0.2378869390953318</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1253</v>
@@ -12765,19 +12765,19 @@
         <v>854370</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>809378</v>
+        <v>807293</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>901783</v>
+        <v>898886</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2299395896920737</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2178307497214391</v>
+        <v>0.2172695380542159</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2427001706253484</v>
+        <v>0.2419203175032282</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2021</v>
@@ -12786,19 +12786,19 @@
         <v>1634341</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1559252</v>
+        <v>1562791</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1704981</v>
+        <v>1706006</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.226027092163054</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2156424244482236</v>
+        <v>0.2161319005441875</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2357965204085896</v>
+        <v>0.2359382281103734</v>
       </c>
     </row>
     <row r="42">
@@ -12815,19 +12815,19 @@
         <v>691011</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>642383</v>
+        <v>646206</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>742918</v>
+        <v>736208</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1965834214728048</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.182749458011709</v>
+        <v>0.1838368712158847</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2113502484598968</v>
+        <v>0.2094412376526402</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1580</v>
@@ -12836,19 +12836,19 @@
         <v>1031818</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>982524</v>
+        <v>983078</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1080756</v>
+        <v>1082879</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.277696826856425</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2644302021651369</v>
+        <v>0.2645792947983531</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2908677861580445</v>
+        <v>0.2914389901188402</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2332</v>
@@ -12857,19 +12857,19 @@
         <v>1722829</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1654069</v>
+        <v>1659166</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1792531</v>
+        <v>1794427</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2382648555173587</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2287554907899446</v>
+        <v>0.2294603576448223</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2479045297472041</v>
+        <v>0.2481668419143679</v>
       </c>
     </row>
     <row r="43">
